--- a/tests/test1/d20/ЛМ, 1.0.xlsx
+++ b/tests/test1/d20/ЛМ, 1.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,13 +582,13 @@
         <v>359.7683597068066</v>
       </c>
       <c r="F2" t="n">
-        <v>20.64488504764833</v>
+        <v>20.64488504764831</v>
       </c>
       <c r="G2" t="n">
         <v>97.97086358706672</v>
       </c>
       <c r="H2" t="n">
-        <v>12.32733714878987</v>
+        <v>12.32733714878985</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>44.56611294423895</v>
       </c>
       <c r="P2" t="n">
-        <v>22.42577054708246</v>
+        <v>22.42577054708244</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.05486869563665262</v>
+        <v>0.05486869563664559</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8537789188850936</v>
+        <v>0.8537789188848575</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7519483797058916</v>
+        <v>0.7519483797056792</v>
       </c>
       <c r="T2" t="n">
-        <v>0.1879983446456742</v>
+        <v>0.1879983446456729</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9986384991587574</v>
+        <v>0.9986384991587576</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3264733939006973</v>
+        <v>0.3264733939006915</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.003112100000002727</v>
+        <v>0.002369499999986147</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -667,7 +667,7 @@
         <v>19.12642194375219</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06507394416505</v>
+        <v>75.06507394416508</v>
       </c>
       <c r="H3" t="n">
         <v>10.87925864327798</v>
@@ -691,28 +691,28 @@
         <v>25.60484930330038</v>
       </c>
       <c r="O3" t="n">
-        <v>34.76054352079479</v>
+        <v>34.7605435207948</v>
       </c>
       <c r="P3" t="n">
         <v>24.19187778788277</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04992501930486553</v>
+        <v>0.04992501930486418</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6987932148498861</v>
+        <v>0.6987932148498543</v>
       </c>
       <c r="S3" t="n">
-        <v>0.607008825625404</v>
+        <v>0.6070088256253696</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3209771410625984</v>
+        <v>0.3209771410625864</v>
       </c>
       <c r="U3" t="n">
         <v>0.994031618673453</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3055964254919412</v>
+        <v>0.3055964254919358</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.01360909999999649</v>
+        <v>0.001809400000013284</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -746,13 +746,13 @@
         <v>0.1311836079368455</v>
       </c>
       <c r="F4" t="n">
-        <v>20.45956137924756</v>
+        <v>20.45956137924755</v>
       </c>
       <c r="G4" t="n">
-        <v>92.1298030058003</v>
+        <v>92.12980300580024</v>
       </c>
       <c r="H4" t="n">
-        <v>3.142715631032937</v>
+        <v>3.142715631032936</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>18.3917275080587</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04676655589396334</v>
+        <v>0.04676655589396356</v>
       </c>
       <c r="R4" t="n">
-        <v>0.509270610859575</v>
+        <v>0.5092706108595686</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2418816017236157</v>
+        <v>0.2418816017236202</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5839054643836294</v>
+        <v>0.5839054643836339</v>
       </c>
       <c r="U4" t="n">
         <v>1.054865464443277</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5513579040652612</v>
+        <v>0.5513579040652608</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002017099999996219</v>
+        <v>0.00167369999999778</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,7 +828,7 @@
         <v>0.231119119347702</v>
       </c>
       <c r="F5" t="n">
-        <v>19.10614612228059</v>
+        <v>19.10614612228058</v>
       </c>
       <c r="G5" t="n">
         <v>100.717292421352</v>
@@ -858,25 +858,25 @@
         <v>44.13381353429723</v>
       </c>
       <c r="P5" t="n">
-        <v>19.68875416991796</v>
+        <v>19.68875416991795</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04703711757230487</v>
+        <v>0.0470371175723062</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6996936511781027</v>
+        <v>0.6996936511781645</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6038354447308373</v>
+        <v>0.6038354447308928</v>
       </c>
       <c r="T5" t="n">
-        <v>0.1730080054546228</v>
+        <v>0.1730080054546225</v>
       </c>
       <c r="U5" t="n">
-        <v>1.044566134931508</v>
+        <v>1.044566134931507</v>
       </c>
       <c r="V5" t="n">
-        <v>0.386297147588065</v>
+        <v>0.3862971475880673</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.004413300000003062</v>
+        <v>0.001928599999985181</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.7090168599771</v>
       </c>
       <c r="H6" t="n">
-        <v>9.713500865821418</v>
+        <v>9.71350086582142</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>21.40017404343588</v>
       </c>
       <c r="P6" t="n">
-        <v>6.156275990815143</v>
+        <v>6.156275990815141</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0378823318253922</v>
+        <v>0.03788233182538943</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2587826503169061</v>
+        <v>0.2587826503168948</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1329888209349209</v>
+        <v>0.1329888209349074</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2429702358664321</v>
+        <v>0.2429702358664191</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9409272534499318</v>
+        <v>0.9409272534499313</v>
       </c>
       <c r="V6" t="n">
-        <v>0.1624395400903975</v>
+        <v>0.1624395400903985</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.002211699999996597</v>
+        <v>0.001767199999989089</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -992,7 +992,7 @@
         <v>359.838705892773</v>
       </c>
       <c r="F7" t="n">
-        <v>20.63210757079812</v>
+        <v>20.63210757079811</v>
       </c>
       <c r="G7" t="n">
         <v>39.88901789776853</v>
@@ -1022,25 +1022,25 @@
         <v>21.29419504198077</v>
       </c>
       <c r="P7" t="n">
-        <v>33.55554919278678</v>
+        <v>33.55554919278677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.05702633642642654</v>
+        <v>0.057026336426423</v>
       </c>
       <c r="R7" t="n">
-        <v>0.8461452497296741</v>
+        <v>0.8461452497295566</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6055870060521641</v>
+        <v>0.6055870060520563</v>
       </c>
       <c r="T7" t="n">
-        <v>0.8382217687229667</v>
+        <v>0.8382217687228527</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9593238514285232</v>
+        <v>0.9593238514285233</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2883325080668265</v>
+        <v>0.2883325080668248</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.003543699999994487</v>
+        <v>0.001890900000006468</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>0.05219021157492979</v>
       </c>
       <c r="F8" t="n">
-        <v>19.63022209610483</v>
+        <v>19.63022209610482</v>
       </c>
       <c r="G8" t="n">
         <v>162.839407706622</v>
@@ -1101,28 +1101,28 @@
         <v>10.25939500470955</v>
       </c>
       <c r="O8" t="n">
-        <v>22.49531448508739</v>
+        <v>22.49531448508741</v>
       </c>
       <c r="P8" t="n">
-        <v>9.645285729499841</v>
+        <v>9.64528572949984</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04073716680405535</v>
+        <v>0.04073716680405771</v>
       </c>
       <c r="R8" t="n">
-        <v>0.334463801421422</v>
+        <v>0.3344638014214154</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1783459472953718</v>
+        <v>0.1783459472953805</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2730801004563967</v>
+        <v>0.2730801004564116</v>
       </c>
       <c r="U8" t="n">
-        <v>0.928375326048172</v>
+        <v>0.9283753260481716</v>
       </c>
       <c r="V8" t="n">
-        <v>0.2021438944130976</v>
+        <v>0.2021438944130979</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.002282200000003343</v>
+        <v>0.001822899999979199</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1186,25 +1186,25 @@
         <v>8.236777044556263</v>
       </c>
       <c r="P9" t="n">
-        <v>29.42182616280005</v>
+        <v>29.42182616280006</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04696695880348772</v>
+        <v>0.0469669588034879</v>
       </c>
       <c r="R9" t="n">
-        <v>0.772989602008417</v>
+        <v>0.7729896020084235</v>
       </c>
       <c r="S9" t="n">
-        <v>0.2381960096306097</v>
+        <v>0.2381960096306124</v>
       </c>
       <c r="T9" t="n">
-        <v>1.262161580349944</v>
+        <v>1.262161580349956</v>
       </c>
       <c r="U9" t="n">
         <v>0.9488181261525951</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4654268994490716</v>
+        <v>0.4654268994490705</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001994599999996183</v>
+        <v>0.001599999999996271</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
@@ -1238,13 +1238,13 @@
         <v>0.018417715248021</v>
       </c>
       <c r="F10" t="n">
-        <v>20.12076862369813</v>
+        <v>20.12076862369812</v>
       </c>
       <c r="G10" t="n">
         <v>157.2074722393608</v>
       </c>
       <c r="H10" t="n">
-        <v>14.71983019719156</v>
+        <v>14.71983019719155</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>8.056033186416919</v>
       </c>
       <c r="O10" t="n">
-        <v>81.35090657384069</v>
+        <v>81.3509065738407</v>
       </c>
       <c r="P10" t="n">
-        <v>8.112045722503463</v>
+        <v>8.112045722503455</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.05177263566321193</v>
+        <v>0.05177263566339309</v>
       </c>
       <c r="R10" t="n">
-        <v>1.159327042584501</v>
+        <v>1.159327042590531</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5994243628939504</v>
+        <v>0.5994243628970302</v>
       </c>
       <c r="T10" t="n">
-        <v>0.8796595909564617</v>
+        <v>0.8796595909610361</v>
       </c>
       <c r="U10" t="n">
         <v>1.096000830685029</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03894237375551272</v>
+        <v>0.03894237375550196</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.005168099999998788</v>
+        <v>0.005134099999992259</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1320,13 +1320,13 @@
         <v>359.962122157738</v>
       </c>
       <c r="F11" t="n">
-        <v>20.70934707159614</v>
+        <v>20.70934707159615</v>
       </c>
       <c r="G11" t="n">
         <v>2.158154616630442</v>
       </c>
       <c r="H11" t="n">
-        <v>8.331783800994753</v>
+        <v>8.331783800994733</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1350,25 +1350,25 @@
         <v>3.125013165058966</v>
       </c>
       <c r="P11" t="n">
-        <v>28.1258528975804</v>
+        <v>28.12585289758039</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04158741082040254</v>
+        <v>0.04158741082040249</v>
       </c>
       <c r="R11" t="n">
-        <v>1.290215574272075</v>
+        <v>1.290215574272068</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1410607837845166</v>
+        <v>0.1410607837845163</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04734906090127</v>
+        <v>2.047349060901258</v>
       </c>
       <c r="U11" t="n">
-        <v>1.047022540646768</v>
+        <v>1.047022540646769</v>
       </c>
       <c r="V11" t="n">
-        <v>0.214156778046359</v>
+        <v>0.214156778046365</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.003088699999999278</v>
+        <v>0.00138129999999137</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1405,7 +1405,7 @@
         <v>20.04439941358807</v>
       </c>
       <c r="G12" t="n">
-        <v>139.1713989941533</v>
+        <v>139.1713989941532</v>
       </c>
       <c r="H12" t="n">
         <v>3.319616717582503</v>
@@ -1432,25 +1432,25 @@
         <v>14.57883036999727</v>
       </c>
       <c r="P12" t="n">
-        <v>14.89333150531257</v>
+        <v>14.89333150531258</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.04294378221821951</v>
+        <v>0.04294378221822048</v>
       </c>
       <c r="R12" t="n">
-        <v>0.4278472915880815</v>
+        <v>0.4278472915880788</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1869730699290432</v>
+        <v>0.1869730699290458</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5308724930119403</v>
+        <v>0.5308724930119574</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8896331441874843</v>
+        <v>0.8896331441874845</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0857440232535534</v>
+        <v>0.08574402325355152</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.001951900000001672</v>
+        <v>0.001757999999995263</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>18.92566413231084</v>
       </c>
       <c r="G13" t="n">
-        <v>29.66314770374505</v>
+        <v>29.66314770374508</v>
       </c>
       <c r="H13" t="n">
-        <v>2.983289205783905</v>
+        <v>2.983289205783903</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>19.64431630651</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04111588506809988</v>
+        <v>0.04111588506810029</v>
       </c>
       <c r="R13" t="n">
-        <v>0.5711452461097657</v>
+        <v>0.5711452461097728</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1641154890877213</v>
+        <v>0.1641154890877214</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8873429247355173</v>
+        <v>0.8873429247355333</v>
       </c>
       <c r="U13" t="n">
-        <v>0.9628699313498105</v>
+        <v>0.9628699313498102</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4348514068870914</v>
+        <v>0.4348514068870931</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.001951099999999428</v>
+        <v>0.001737800000000789</v>
       </c>
       <c r="Y13" t="n">
         <v>8</v>
@@ -1566,13 +1566,13 @@
         <v>0.08090107660555047</v>
       </c>
       <c r="F14" t="n">
-        <v>20.95943753157487</v>
+        <v>20.95943753157488</v>
       </c>
       <c r="G14" t="n">
-        <v>27.54825680219533</v>
+        <v>27.54825680219532</v>
       </c>
       <c r="H14" t="n">
-        <v>13.10930589786972</v>
+        <v>13.10930589786973</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>14.7072219665917</v>
       </c>
       <c r="P14" t="n">
-        <v>33.38446351450903</v>
+        <v>33.38446351450905</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0558159599103457</v>
+        <v>0.05581595991034553</v>
       </c>
       <c r="R14" t="n">
-        <v>0.8299873906644734</v>
+        <v>0.8299873906644524</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4424426801632241</v>
+        <v>0.4424426801632106</v>
       </c>
       <c r="T14" t="n">
-        <v>1.058013731452296</v>
+        <v>1.058013731452276</v>
       </c>
       <c r="U14" t="n">
         <v>1.00701919577773</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4213266285579365</v>
+        <v>0.4213266285579398</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.002052299999995455</v>
+        <v>0.001548899999988862</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         <v>0.01168168853898844</v>
       </c>
       <c r="F15" t="n">
-        <v>20.119311870529</v>
+        <v>20.11931187052899</v>
       </c>
       <c r="G15" t="n">
         <v>139.5716534733151</v>
       </c>
       <c r="H15" t="n">
-        <v>5.896024484955429</v>
+        <v>5.896024484955428</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1678,25 +1678,25 @@
         <v>25.43536298348994</v>
       </c>
       <c r="P15" t="n">
-        <v>13.41773614602791</v>
+        <v>13.4177361460279</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04526547517544054</v>
+        <v>0.04526547517543875</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4522509392895191</v>
+        <v>0.452250939289477</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2588994120306354</v>
+        <v>0.2588994120306071</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2828421176414088</v>
+        <v>0.2828421176414129</v>
       </c>
       <c r="U15" t="n">
         <v>0.877377885595209</v>
       </c>
       <c r="V15" t="n">
-        <v>0.07165979724118576</v>
+        <v>0.07165979724118224</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002198599999999828</v>
+        <v>0.001796100000007073</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1727,16 +1727,16 @@
         <v>12.27798062495156</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1861360341372389</v>
+        <v>0.1861360341372262</v>
       </c>
       <c r="F16" t="n">
-        <v>19.69101237570809</v>
+        <v>19.69101237570812</v>
       </c>
       <c r="G16" t="n">
         <v>92.06495309215217</v>
       </c>
       <c r="H16" t="n">
-        <v>12.05167113035288</v>
+        <v>12.05167113035291</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>43.46064624667024</v>
       </c>
       <c r="P16" t="n">
-        <v>22.80569439270017</v>
+        <v>22.80569439270021</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.04985576868981433</v>
+        <v>0.04985576868981369</v>
       </c>
       <c r="R16" t="n">
-        <v>0.7920455453043076</v>
+        <v>0.7920455453043167</v>
       </c>
       <c r="S16" t="n">
-        <v>0.7239731349940305</v>
+        <v>0.723973134994031</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1939614098481615</v>
+        <v>0.1939614098481612</v>
       </c>
       <c r="U16" t="n">
         <v>1.038610941512043</v>
       </c>
       <c r="V16" t="n">
-        <v>0.0893815041497536</v>
+        <v>0.08938150414973861</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.002465699999994797</v>
+        <v>0.002527200000002949</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1839,28 +1839,28 @@
         <v>12.54421959985167</v>
       </c>
       <c r="O17" t="n">
-        <v>18.55336521960387</v>
+        <v>18.55336521960388</v>
       </c>
       <c r="P17" t="n">
         <v>12.4112164956596</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.04227526241801855</v>
+        <v>0.04227526241801839</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3787121344583715</v>
+        <v>0.3787121344583644</v>
       </c>
       <c r="S17" t="n">
-        <v>0.189252851189071</v>
+        <v>0.1892528511890684</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3846077384310447</v>
+        <v>0.3846077384310421</v>
       </c>
       <c r="U17" t="n">
-        <v>1.001632467747279</v>
+        <v>1.001632467747278</v>
       </c>
       <c r="V17" t="n">
-        <v>0.04223364637508158</v>
+        <v>0.04223364637508134</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002102200000003052</v>
+        <v>0.001726600000012013</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1897,10 +1897,10 @@
         <v>18.81667307484082</v>
       </c>
       <c r="G18" t="n">
-        <v>40.63023350642592</v>
+        <v>40.6302335064259</v>
       </c>
       <c r="H18" t="n">
-        <v>8.176997409456606</v>
+        <v>8.176997409456614</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1924,25 +1924,25 @@
         <v>17.76653293846042</v>
       </c>
       <c r="P18" t="n">
-        <v>24.83147148936627</v>
+        <v>24.83147148936628</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04775606381773009</v>
+        <v>0.04775606381772934</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5810552105016572</v>
+        <v>0.5810552105016465</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3417587745275885</v>
+        <v>0.3417587745275715</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6530451859755109</v>
+        <v>0.6530451859754887</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8525081978210337</v>
+        <v>0.8525081978210345</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4832105593589728</v>
+        <v>0.4832105593589688</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.003652099999996494</v>
+        <v>0.001562599999999748</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -1976,13 +1976,13 @@
         <v>359.8242452521375</v>
       </c>
       <c r="F19" t="n">
-        <v>19.74041587271751</v>
+        <v>19.74041587271752</v>
       </c>
       <c r="G19" t="n">
-        <v>50.88537267098868</v>
+        <v>50.88537267098867</v>
       </c>
       <c r="H19" t="n">
-        <v>9.8706732960762</v>
+        <v>9.870673296076205</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>22.72211715494377</v>
       </c>
       <c r="P19" t="n">
-        <v>26.66612389381425</v>
+        <v>26.66612389381426</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05204307764768469</v>
+        <v>0.05204307764768694</v>
       </c>
       <c r="R19" t="n">
-        <v>0.6782968137629207</v>
+        <v>0.6782968137629578</v>
       </c>
       <c r="S19" t="n">
-        <v>0.4699625712038019</v>
+        <v>0.4699625712038378</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5838703448480951</v>
+        <v>0.5838703448481314</v>
       </c>
       <c r="U19" t="n">
-        <v>1.030499547962717</v>
+        <v>1.030499547962716</v>
       </c>
       <c r="V19" t="n">
-        <v>0.2399528149558743</v>
+        <v>0.2399528149558767</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.001966599999995822</v>
+        <v>0.001654899999977033</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2061,10 +2061,10 @@
         <v>20.95895471770339</v>
       </c>
       <c r="G20" t="n">
-        <v>114.4979949950795</v>
+        <v>114.4979949950794</v>
       </c>
       <c r="H20" t="n">
-        <v>9.86947014248107</v>
+        <v>9.869470142481072</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2091,22 +2091,22 @@
         <v>17.89567606133545</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05380331869999683</v>
+        <v>0.05380331869999155</v>
       </c>
       <c r="R20" t="n">
-        <v>0.7369832133071765</v>
+        <v>0.7369832133070572</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5430707943400361</v>
+        <v>0.5430707943399393</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1960472623287883</v>
+        <v>0.1960472623287884</v>
       </c>
       <c r="U20" t="n">
         <v>1.02111901291229</v>
       </c>
       <c r="V20" t="n">
-        <v>0.4848705545810336</v>
+        <v>0.4848705545810358</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.001732500000002801</v>
+        <v>0.001501700000005712</v>
       </c>
       <c r="Y20" t="n">
         <v>7</v>
@@ -2143,10 +2143,10 @@
         <v>19.59390448874083</v>
       </c>
       <c r="G21" t="n">
-        <v>16.98790280629771</v>
+        <v>16.98790280629772</v>
       </c>
       <c r="H21" t="n">
-        <v>12.64011420366897</v>
+        <v>12.64011420366896</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2167,28 +2167,28 @@
         <v>31.75837563530379</v>
       </c>
       <c r="O21" t="n">
-        <v>10.09566034371862</v>
+        <v>10.09566034371864</v>
       </c>
       <c r="P21" t="n">
-        <v>31.97898723370025</v>
+        <v>31.97898723370024</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.05052739726415741</v>
+        <v>0.05052739726415739</v>
       </c>
       <c r="R21" t="n">
-        <v>0.788086935316836</v>
+        <v>0.7880869353168352</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3058381106780417</v>
+        <v>0.3058381106780393</v>
       </c>
       <c r="T21" t="n">
-        <v>1.226301874702128</v>
+        <v>1.226301874702117</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9648010806740751</v>
+        <v>0.964801080674075</v>
       </c>
       <c r="V21" t="n">
-        <v>0.1317124650666021</v>
+        <v>0.1317124650666063</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.002007700000000057</v>
+        <v>0.001579800000001796</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.1363704095895944</v>
       </c>
       <c r="F22" t="n">
-        <v>18.94318299926534</v>
+        <v>18.94318299926531</v>
       </c>
       <c r="G22" t="n">
         <v>106.4736875578323</v>
       </c>
       <c r="H22" t="n">
-        <v>12.71588624875548</v>
+        <v>12.71588624875546</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>52.86836128633245</v>
       </c>
       <c r="P22" t="n">
-        <v>19.87859105862299</v>
+        <v>19.87859105862296</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0475103047075905</v>
+        <v>0.04751030470759351</v>
       </c>
       <c r="R22" t="n">
-        <v>0.7966837750518678</v>
+        <v>0.7966837750520015</v>
       </c>
       <c r="S22" t="n">
-        <v>0.7497386239322332</v>
+        <v>0.7497386239323606</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2011940013725547</v>
+        <v>0.201194001372572</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9421950551940848</v>
+        <v>0.9421950551940842</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3543057302464134</v>
+        <v>0.3543057302464194</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.002667399999999986</v>
+        <v>0.002598599999998896</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>10.10035285587215</v>
       </c>
       <c r="H23" t="n">
-        <v>7.811846527328587</v>
+        <v>7.811846527328593</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>5.708082694686041</v>
       </c>
       <c r="P23" t="n">
-        <v>27.7788483646318</v>
+        <v>27.77884836463181</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.04621938092493099</v>
+        <v>0.04621938092493175</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9498924672929778</v>
+        <v>0.9498924672929701</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1910276710608052</v>
+        <v>0.1910276710608085</v>
       </c>
       <c r="T23" t="n">
-        <v>1.548916618346146</v>
+        <v>1.548916618346178</v>
       </c>
       <c r="U23" t="n">
         <v>1.013013423097263</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8102100190508176</v>
+        <v>0.810210019050821</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.0017674999999997</v>
+        <v>0.001586599999995997</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>20.97373672292037</v>
       </c>
       <c r="G24" t="n">
-        <v>40.94183705508098</v>
+        <v>40.94183705508097</v>
       </c>
       <c r="H24" t="n">
-        <v>8.29724958772267</v>
+        <v>8.297249587722673</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>16.57423671437864</v>
       </c>
       <c r="P24" t="n">
-        <v>27.00025187407187</v>
+        <v>27.00025187407188</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.05313917760832895</v>
+        <v>0.05313917760832948</v>
       </c>
       <c r="R24" t="n">
-        <v>0.7041153676238927</v>
+        <v>0.7041153676238731</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3801784450596783</v>
+        <v>0.3801784450596754</v>
       </c>
       <c r="T24" t="n">
-        <v>0.7756876830937999</v>
+        <v>0.7756876830938104</v>
       </c>
       <c r="U24" t="n">
         <v>1.103062257130804</v>
       </c>
       <c r="V24" t="n">
-        <v>0.2705796684710222</v>
+        <v>0.2705796684710217</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.001968900000001383</v>
+        <v>0.001641899999981433</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2474,7 +2474,7 @@
         <v>93.02134247980355</v>
       </c>
       <c r="H25" t="n">
-        <v>14.17198863088015</v>
+        <v>14.17198863088016</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2501,22 +2501,22 @@
         <v>24.28965812763562</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.05230355674501398</v>
+        <v>0.05230355674501969</v>
       </c>
       <c r="R25" t="n">
-        <v>0.8825076138173581</v>
+        <v>0.882507613817553</v>
       </c>
       <c r="S25" t="n">
-        <v>0.8874487054700588</v>
+        <v>0.8874487054702659</v>
       </c>
       <c r="T25" t="n">
-        <v>0.172471825412276</v>
+        <v>0.1724718254122748</v>
       </c>
       <c r="U25" t="n">
-        <v>0.9161632927573774</v>
+        <v>0.9161632927573773</v>
       </c>
       <c r="V25" t="n">
-        <v>0.08972873800576901</v>
+        <v>0.08972873800576869</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004327600000003429</v>
+        <v>0.002450199999998404</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2583,22 +2583,22 @@
         <v>5.146175686208</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.04362205446043273</v>
+        <v>0.04362205446043393</v>
       </c>
       <c r="R26" t="n">
-        <v>0.416467171207877</v>
+        <v>0.4164671712078775</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1987440540853229</v>
+        <v>0.1987440540853285</v>
       </c>
       <c r="T26" t="n">
-        <v>0.1741412070076469</v>
+        <v>0.1741412070076409</v>
       </c>
       <c r="U26" t="n">
-        <v>0.9739590751342783</v>
+        <v>0.9739590751342786</v>
       </c>
       <c r="V26" t="n">
-        <v>0.1849242477113825</v>
+        <v>0.1849242477113811</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.005358000000001084</v>
+        <v>0.002330800000009958</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2632,13 +2632,13 @@
         <v>0.02999634852924814</v>
       </c>
       <c r="F27" t="n">
-        <v>20.54169113585212</v>
+        <v>20.54169113585214</v>
       </c>
       <c r="G27" t="n">
         <v>156.4338260921446</v>
       </c>
       <c r="H27" t="n">
-        <v>10.32341199911732</v>
+        <v>10.32341199911734</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2659,28 +2659,28 @@
         <v>8.709475492388034</v>
       </c>
       <c r="O27" t="n">
-        <v>43.03290804894736</v>
+        <v>43.03290804894737</v>
       </c>
       <c r="P27" t="n">
-        <v>8.988720288878554</v>
+        <v>8.988720288878573</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.0463438661228478</v>
+        <v>0.04634386612284039</v>
       </c>
       <c r="R27" t="n">
-        <v>0.5593946399329164</v>
+        <v>0.5593946399327113</v>
       </c>
       <c r="S27" t="n">
-        <v>0.3061369172075867</v>
+        <v>0.3061369172074847</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2219081015656917</v>
+        <v>0.2219081015656266</v>
       </c>
       <c r="U27" t="n">
         <v>1.06885303659052</v>
       </c>
       <c r="V27" t="n">
-        <v>0.1818452460314354</v>
+        <v>0.1818452460314508</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.003097199999999134</v>
+        <v>0.002525399999996125</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2711,7 +2711,7 @@
         <v>9.232697751663608</v>
       </c>
       <c r="E28" t="n">
-        <v>0.06852061641910043</v>
+        <v>0.06852061641911314</v>
       </c>
       <c r="F28" t="n">
         <v>20.15652937660424</v>
@@ -2741,28 +2741,28 @@
         <v>25.81162416209323</v>
       </c>
       <c r="O28" t="n">
-        <v>23.60402596159613</v>
+        <v>23.60402596159611</v>
       </c>
       <c r="P28" t="n">
         <v>25.51601213339036</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.05176856876391857</v>
+        <v>0.05176856876391676</v>
       </c>
       <c r="R28" t="n">
-        <v>0.681573820076808</v>
+        <v>0.6815738200767566</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4657252414240537</v>
+        <v>0.4657252414240085</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5401088226682405</v>
+        <v>0.540108822668208</v>
       </c>
       <c r="U28" t="n">
         <v>0.9601409906410565</v>
       </c>
       <c r="V28" t="n">
-        <v>0.1605809079304336</v>
+        <v>0.1605809079304265</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002081900000000303</v>
+        <v>0.001706699999999728</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2796,13 +2796,13 @@
         <v>359.7886628743853</v>
       </c>
       <c r="F29" t="n">
-        <v>20.1291897796551</v>
+        <v>20.12918977965508</v>
       </c>
       <c r="G29" t="n">
         <v>75.98443273954689</v>
       </c>
       <c r="H29" t="n">
-        <v>13.1991523792491</v>
+        <v>13.19915237924908</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2826,25 +2826,25 @@
         <v>37.63869313242238</v>
       </c>
       <c r="P29" t="n">
-        <v>26.95955475346063</v>
+        <v>26.9595547534606</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.05500421650571301</v>
+        <v>0.05500421650572096</v>
       </c>
       <c r="R29" t="n">
-        <v>0.8389059678049634</v>
+        <v>0.8389059678051496</v>
       </c>
       <c r="S29" t="n">
-        <v>0.7795967063335035</v>
+        <v>0.7795967063337055</v>
       </c>
       <c r="T29" t="n">
-        <v>0.3275434197366234</v>
+        <v>0.3275434197366808</v>
       </c>
       <c r="U29" t="n">
-        <v>1.035195766033748</v>
+        <v>1.035195766033747</v>
       </c>
       <c r="V29" t="n">
-        <v>0.1582620063891205</v>
+        <v>0.1582620063891151</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.0025035000000031</v>
+        <v>0.00208900000001222</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9711996829279</v>
       </c>
       <c r="F30" t="n">
-        <v>20.05796486167148</v>
+        <v>20.05796486167149</v>
       </c>
       <c r="G30" t="n">
         <v>130.7314121642373</v>
       </c>
       <c r="H30" t="n">
-        <v>9.790261654046089</v>
+        <v>9.790261654046098</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2908,25 +2908,25 @@
         <v>45.82971797715086</v>
       </c>
       <c r="P30" t="n">
-        <v>14.029501995638</v>
+        <v>14.02950199563801</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.04814886301957461</v>
+        <v>0.04814886301958556</v>
       </c>
       <c r="R30" t="n">
-        <v>0.653883228545056</v>
+        <v>0.6538832285453322</v>
       </c>
       <c r="S30" t="n">
-        <v>0.4536242851181814</v>
+        <v>0.4536242851183838</v>
       </c>
       <c r="T30" t="n">
-        <v>0.210212492136809</v>
+        <v>0.2102124921368499</v>
       </c>
       <c r="U30" t="n">
-        <v>0.9583518585360686</v>
+        <v>0.9583518585360682</v>
       </c>
       <c r="V30" t="n">
-        <v>0.05257233945431854</v>
+        <v>0.0525723394543292</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.004077799999997467</v>
+        <v>0.002048599999994849</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2993,19 +2993,19 @@
         <v>11.95211564634479</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.04438903827047599</v>
+        <v>0.04438903827047579</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4103593971613577</v>
+        <v>0.4103593971613524</v>
       </c>
       <c r="S31" t="n">
-        <v>0.2200635366038652</v>
+        <v>0.2200635366038643</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3012643592871203</v>
+        <v>0.3012643592871153</v>
       </c>
       <c r="U31" t="n">
-        <v>1.005865242968206</v>
+        <v>1.005865242968207</v>
       </c>
       <c r="V31" t="n">
         <v>0.2263108630780232</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.004189999999994143</v>
+        <v>0.001886600000005956</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3042,13 +3042,13 @@
         <v>0.08372893025779646</v>
       </c>
       <c r="F32" t="n">
-        <v>19.41237950445849</v>
+        <v>19.41237950445848</v>
       </c>
       <c r="G32" t="n">
         <v>116.4148820179627</v>
       </c>
       <c r="H32" t="n">
-        <v>7.226546964125488</v>
+        <v>7.226546964125486</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3075,22 +3075,22 @@
         <v>15.7408015476132</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.04609950526044683</v>
+        <v>0.04609950526044634</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5472666185414464</v>
+        <v>0.5472666185413957</v>
       </c>
       <c r="S32" t="n">
-        <v>0.3779457802311211</v>
+        <v>0.3779457802310942</v>
       </c>
       <c r="T32" t="n">
-        <v>0.2059980003176383</v>
+        <v>0.2059980003176367</v>
       </c>
       <c r="U32" t="n">
-        <v>0.9942470347534228</v>
+        <v>0.9942470347534234</v>
       </c>
       <c r="V32" t="n">
-        <v>0.218929848819543</v>
+        <v>0.2189298488195441</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.004108099999996284</v>
+        <v>0.001884500000016942</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>19.42146819394284</v>
       </c>
       <c r="G33" t="n">
-        <v>50.64188790167583</v>
+        <v>50.64188790167582</v>
       </c>
       <c r="H33" t="n">
         <v>14.08495047169665</v>
@@ -3157,22 +3157,22 @@
         <v>31.01552579677283</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.05268891231269331</v>
+        <v>0.05268891231269342</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7819753172860877</v>
+        <v>0.7819753172860641</v>
       </c>
       <c r="S33" t="n">
-        <v>0.6681841344291116</v>
+        <v>0.6681841344290954</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6258920383939656</v>
+        <v>0.6258920383939599</v>
       </c>
       <c r="U33" t="n">
         <v>1.025610059531897</v>
       </c>
       <c r="V33" t="n">
-        <v>0.1866521925192537</v>
+        <v>0.1866521925192534</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.004119299999999271</v>
+        <v>0.002075399999995398</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3212,7 +3212,7 @@
         <v>152.8638336226549</v>
       </c>
       <c r="H34" t="n">
-        <v>7.291482549728764</v>
+        <v>7.291482549728763</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3239,22 +3239,22 @@
         <v>10.75561271051749</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.04403916796823711</v>
+        <v>0.04403916796823628</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4129910649622837</v>
+        <v>0.412991064962289</v>
       </c>
       <c r="S34" t="n">
-        <v>0.2344296680792401</v>
+        <v>0.2344296680792372</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2175815504069183</v>
+        <v>0.2175815504069145</v>
       </c>
       <c r="U34" t="n">
         <v>1.010269612674805</v>
       </c>
       <c r="V34" t="n">
-        <v>0.1507345374891506</v>
+        <v>0.1507345374891512</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002275900000000775</v>
+        <v>0.001864199999999983</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3288,13 +3288,13 @@
         <v>0.3039650296181246</v>
       </c>
       <c r="F35" t="n">
-        <v>19.82502234738138</v>
+        <v>19.82502234738139</v>
       </c>
       <c r="G35" t="n">
-        <v>49.22772590252044</v>
+        <v>49.22772590252045</v>
       </c>
       <c r="H35" t="n">
-        <v>6.985111206066566</v>
+        <v>6.985111206066567</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3318,25 +3318,25 @@
         <v>18.5774249493796</v>
       </c>
       <c r="P35" t="n">
-        <v>23.92922437396745</v>
+        <v>23.92922437396746</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.04932206079311457</v>
+        <v>0.04932206079311253</v>
       </c>
       <c r="R35" t="n">
-        <v>0.605346241833129</v>
+        <v>0.60534624183309</v>
       </c>
       <c r="S35" t="n">
-        <v>0.3501525706094987</v>
+        <v>0.3501525706094556</v>
       </c>
       <c r="T35" t="n">
-        <v>0.6248581170124013</v>
+        <v>0.6248581170123542</v>
       </c>
       <c r="U35" t="n">
-        <v>0.959998696438167</v>
+        <v>0.9599986964381669</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6680562698287045</v>
+        <v>0.6680562698287039</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.002317699999998979</v>
+        <v>0.001781800000003386</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3376,7 +3376,7 @@
         <v>7.720143431025751</v>
       </c>
       <c r="H36" t="n">
-        <v>11.49615532391699</v>
+        <v>11.49615532391697</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3400,25 +3400,25 @@
         <v>5.439842257517239</v>
       </c>
       <c r="P36" t="n">
-        <v>31.74854640858429</v>
+        <v>31.74854640858427</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.04788365775988291</v>
+        <v>0.04788365775988293</v>
       </c>
       <c r="R36" t="n">
-        <v>1.058361561023755</v>
+        <v>1.05836156102376</v>
       </c>
       <c r="S36" t="n">
-        <v>0.2102413102458758</v>
+        <v>0.2102413102458736</v>
       </c>
       <c r="T36" t="n">
         <v>1.763551943430516</v>
       </c>
       <c r="U36" t="n">
-        <v>0.955344628721111</v>
+        <v>0.9553446287211108</v>
       </c>
       <c r="V36" t="n">
-        <v>0.2619141602184353</v>
+        <v>0.2619141602184408</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001783299999999599</v>
+        <v>0.001481400000017175</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,10 +3455,10 @@
         <v>20.25284480513682</v>
       </c>
       <c r="G37" t="n">
-        <v>83.59987895599237</v>
+        <v>83.59987895599238</v>
       </c>
       <c r="H37" t="n">
-        <v>6.847280119737863</v>
+        <v>6.847280119737864</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>26.64840628214137</v>
       </c>
       <c r="P37" t="n">
-        <v>20.75732775104112</v>
+        <v>20.75732775104113</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.05035642023198516</v>
+        <v>0.05035642023198542</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6162759402198872</v>
+        <v>0.6162759402198584</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4118407221273414</v>
+        <v>0.4118407221273292</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3743755526252075</v>
+        <v>0.3743755526252099</v>
       </c>
       <c r="U37" t="n">
         <v>1.043661710028795</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1679259986088842</v>
+        <v>0.1679259986088848</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002242500000001257</v>
+        <v>0.001849399999997559</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3540,7 +3540,7 @@
         <v>132.0748760706201</v>
       </c>
       <c r="H38" t="n">
-        <v>9.7945996931682</v>
+        <v>9.794599693168195</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3561,28 +3561,28 @@
         <v>13.96841538265422</v>
       </c>
       <c r="O38" t="n">
-        <v>48.13837817428669</v>
+        <v>48.13837817428668</v>
       </c>
       <c r="P38" t="n">
-        <v>13.33226305705746</v>
+        <v>13.33226305705745</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.04568062005274752</v>
+        <v>0.04568062005274746</v>
       </c>
       <c r="R38" t="n">
-        <v>0.6262037215177623</v>
+        <v>0.6262037215177719</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4412577841079626</v>
+        <v>0.4412577841079672</v>
       </c>
       <c r="T38" t="n">
-        <v>0.2139662233977175</v>
+        <v>0.2139662233977216</v>
       </c>
       <c r="U38" t="n">
         <v>1.105622527200727</v>
       </c>
       <c r="V38" t="n">
-        <v>0.2096817638596135</v>
+        <v>0.2096817638596156</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.0033984000000018</v>
+        <v>0.003455800000011777</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3616,13 +3616,13 @@
         <v>359.8456198515004</v>
       </c>
       <c r="F39" t="n">
-        <v>20.45749785143443</v>
+        <v>20.45749785143444</v>
       </c>
       <c r="G39" t="n">
         <v>167.7200525580456</v>
       </c>
       <c r="H39" t="n">
-        <v>8.445718937027655</v>
+        <v>8.445718937027658</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3643,28 +3643,28 @@
         <v>7.834932884569842</v>
       </c>
       <c r="O39" t="n">
-        <v>22.39419296284911</v>
+        <v>22.39419296284912</v>
       </c>
       <c r="P39" t="n">
         <v>8.585566841145772</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.04182646503174878</v>
+        <v>0.04182646503174883</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3356534553628188</v>
+        <v>0.3356534553628265</v>
       </c>
       <c r="S39" t="n">
-        <v>0.1725191818679602</v>
+        <v>0.1725191818679655</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2640212209114333</v>
+        <v>0.2640212209114266</v>
       </c>
       <c r="U39" t="n">
-        <v>0.9654575760198112</v>
+        <v>0.965457576019811</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3131957020274125</v>
+        <v>0.3131957020274114</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.00223919999999822</v>
+        <v>0.001900499999976546</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3698,13 +3698,13 @@
         <v>359.7778046365331</v>
       </c>
       <c r="F40" t="n">
-        <v>20.44812116743636</v>
+        <v>20.44812116743637</v>
       </c>
       <c r="G40" t="n">
         <v>69.33453809953431</v>
       </c>
       <c r="H40" t="n">
-        <v>13.82588591589122</v>
+        <v>13.82588591589124</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3725,28 +3725,28 @@
         <v>28.11848681131468</v>
       </c>
       <c r="O40" t="n">
-        <v>35.04711232277861</v>
+        <v>35.04711232277862</v>
       </c>
       <c r="P40" t="n">
-        <v>28.93287714700818</v>
+        <v>28.93287714700821</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.05650409153655554</v>
+        <v>0.05650409153655645</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8706351765523372</v>
+        <v>0.8706351765523017</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8006766484725327</v>
+        <v>0.8006766484725157</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4152960029007794</v>
+        <v>0.4152960029007863</v>
       </c>
       <c r="U40" t="n">
         <v>1.062688681300386</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1659437816369163</v>
+        <v>0.1659437816369208</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.002479700000002083</v>
+        <v>0.001958999999999378</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3780,13 +3780,13 @@
         <v>0.004464964917880104</v>
       </c>
       <c r="F41" t="n">
-        <v>19.4122551597488</v>
+        <v>19.41225515974878</v>
       </c>
       <c r="G41" t="n">
         <v>98.1928718741477</v>
       </c>
       <c r="H41" t="n">
-        <v>12.13480338858608</v>
+        <v>12.13480338858607</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3807,28 +3807,28 @@
         <v>22.11787085750909</v>
       </c>
       <c r="O41" t="n">
-        <v>46.63369492530669</v>
+        <v>46.63369492530668</v>
       </c>
       <c r="P41" t="n">
-        <v>21.43820035399473</v>
+        <v>21.43820035399471</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.04993194992849573</v>
+        <v>0.04993194992850099</v>
       </c>
       <c r="R41" t="n">
-        <v>0.7818583905087618</v>
+        <v>0.7818583905090227</v>
       </c>
       <c r="S41" t="n">
-        <v>0.7201061012574519</v>
+        <v>0.7201061012576863</v>
       </c>
       <c r="T41" t="n">
-        <v>0.1715630879934465</v>
+        <v>0.171563087993449</v>
       </c>
       <c r="U41" t="n">
         <v>1.044794591881241</v>
       </c>
       <c r="V41" t="n">
-        <v>0.161439409887538</v>
+        <v>0.1614394098875498</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.004673199999999156</v>
+        <v>0.002655200000020841</v>
       </c>
       <c r="Y41" t="n">
         <v>10</v>
@@ -3865,10 +3865,10 @@
         <v>20.25775787283878</v>
       </c>
       <c r="G42" t="n">
-        <v>65.61542056535964</v>
+        <v>65.61542056535963</v>
       </c>
       <c r="H42" t="n">
-        <v>4.123016759681163</v>
+        <v>4.123016759681166</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3892,25 +3892,25 @@
         <v>16.04684591537001</v>
       </c>
       <c r="P42" t="n">
-        <v>20.48212627469105</v>
+        <v>20.48212627469106</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.04782432791222627</v>
+        <v>0.04782432791222625</v>
       </c>
       <c r="R42" t="n">
-        <v>0.5446979448111164</v>
+        <v>0.5446979448111186</v>
       </c>
       <c r="S42" t="n">
-        <v>0.2707584403199145</v>
+        <v>0.2707584403199179</v>
       </c>
       <c r="T42" t="n">
-        <v>0.6131575845212569</v>
+        <v>0.6131575845212517</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9688323542425751</v>
+        <v>0.9688323542425756</v>
       </c>
       <c r="V42" t="n">
-        <v>0.61564787819399</v>
+        <v>0.6156478781939928</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00198830000000072</v>
+        <v>0.001618100000001732</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3950,7 +3950,7 @@
         <v>62.22011187380402</v>
       </c>
       <c r="H43" t="n">
-        <v>2.399924428093516</v>
+        <v>2.399924428093515</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3977,22 +3977,22 @@
         <v>19.05084783814264</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.0448285974274295</v>
+        <v>0.04482859742742908</v>
       </c>
       <c r="R43" t="n">
-        <v>0.5301228057457327</v>
+        <v>0.53012280574573</v>
       </c>
       <c r="S43" t="n">
-        <v>0.197949199056206</v>
+        <v>0.1979491990562015</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7570255913947104</v>
+        <v>0.7570255913947006</v>
       </c>
       <c r="U43" t="n">
         <v>1.001939370698556</v>
       </c>
       <c r="V43" t="n">
-        <v>1.405586040027257</v>
+        <v>1.405586040027258</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.004562399999997524</v>
+        <v>0.001702500000021701</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4026,13 +4026,13 @@
         <v>0.2158376393623294</v>
       </c>
       <c r="F44" t="n">
-        <v>19.97963409719506</v>
+        <v>19.97963409719505</v>
       </c>
       <c r="G44" t="n">
-        <v>69.01928857812584</v>
+        <v>69.01928857812585</v>
       </c>
       <c r="H44" t="n">
-        <v>13.75610695246814</v>
+        <v>13.75610695246813</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4053,28 +4053,28 @@
         <v>29.50819163776045</v>
       </c>
       <c r="O44" t="n">
-        <v>35.59404123812575</v>
+        <v>35.59404123812576</v>
       </c>
       <c r="P44" t="n">
-        <v>28.62118368322592</v>
+        <v>28.62118368322589</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.05276215023763917</v>
+        <v>0.05276215023763843</v>
       </c>
       <c r="R44" t="n">
-        <v>0.8437075338677953</v>
+        <v>0.8437075338677118</v>
       </c>
       <c r="S44" t="n">
-        <v>0.7900633298054741</v>
+        <v>0.7900633298054044</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4071850137615294</v>
+        <v>0.4071850137615148</v>
       </c>
       <c r="U44" t="n">
         <v>0.9374707404143826</v>
       </c>
       <c r="V44" t="n">
-        <v>0.2271523607055646</v>
+        <v>0.2271523607055759</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002429499999998086</v>
+        <v>0.001990399999982628</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
         <v>19.37779129494765</v>
       </c>
       <c r="G45" t="n">
-        <v>19.39035084661543</v>
+        <v>19.39035084661544</v>
       </c>
       <c r="H45" t="n">
-        <v>10.97958151954898</v>
+        <v>10.97958151954897</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>10.70626257482078</v>
       </c>
       <c r="P45" t="n">
-        <v>29.70669567681864</v>
+        <v>29.70669567681863</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.04904572846266105</v>
+        <v>0.04904572846266275</v>
       </c>
       <c r="R45" t="n">
-        <v>0.7227296074989104</v>
+        <v>0.7227296074989079</v>
       </c>
       <c r="S45" t="n">
-        <v>0.2916281767840804</v>
+        <v>0.2916281767840954</v>
       </c>
       <c r="T45" t="n">
-        <v>1.09375708191302</v>
+        <v>1.093757081913072</v>
       </c>
       <c r="U45" t="n">
         <v>0.9778581897973059</v>
       </c>
       <c r="V45" t="n">
-        <v>0.2422002525581241</v>
+        <v>0.2422002525581213</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.004035700000002862</v>
+        <v>0.00178020000001311</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4190,13 +4190,13 @@
         <v>0.03761239480344374</v>
       </c>
       <c r="F46" t="n">
-        <v>20.96962799722683</v>
+        <v>20.96962799722684</v>
       </c>
       <c r="G46" t="n">
-        <v>149.6630627988689</v>
+        <v>149.6630627988688</v>
       </c>
       <c r="H46" t="n">
-        <v>4.55407612263998</v>
+        <v>4.554076122639978</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4220,25 +4220,25 @@
         <v>16.13267201920509</v>
       </c>
       <c r="P46" t="n">
-        <v>14.19569063877096</v>
+        <v>14.19569063877097</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.04492307718417032</v>
+        <v>0.04492307718417051</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4383326414291311</v>
+        <v>0.4383326414291246</v>
       </c>
       <c r="S46" t="n">
-        <v>0.2001627550121655</v>
+        <v>0.2001627550121629</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4888117625465137</v>
+        <v>0.4888117625465216</v>
       </c>
       <c r="U46" t="n">
-        <v>0.9976373069132247</v>
+        <v>0.9976373069132244</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3214545630603791</v>
+        <v>0.321454563060382</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.001974099999998202</v>
+        <v>0.001591000000018994</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4272,7 +4272,7 @@
         <v>0.06265965074550946</v>
       </c>
       <c r="F47" t="n">
-        <v>19.92104229751046</v>
+        <v>19.92104229751047</v>
       </c>
       <c r="G47" t="n">
         <v>178.6956314496825</v>
@@ -4299,28 +4299,28 @@
         <v>6.082586648846124</v>
       </c>
       <c r="O47" t="n">
-        <v>14.87409698329636</v>
+        <v>14.87409698329635</v>
       </c>
       <c r="P47" t="n">
-        <v>5.691584266501798</v>
+        <v>5.691584266501802</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.03401679708777596</v>
+        <v>0.03401679708777385</v>
       </c>
       <c r="R47" t="n">
-        <v>0.2471954261965108</v>
+        <v>0.2471954261965014</v>
       </c>
       <c r="S47" t="n">
-        <v>0.09531463863597608</v>
+        <v>0.09531463863597261</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3317841776183136</v>
+        <v>0.3317841776182869</v>
       </c>
       <c r="U47" t="n">
-        <v>0.9437936247314956</v>
+        <v>0.9437936247314955</v>
       </c>
       <c r="V47" t="n">
-        <v>0.2034289267525009</v>
+        <v>0.203428926752507</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.00198040000000077</v>
+        <v>0.001710799999983692</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,13 +4354,13 @@
         <v>0.05449362896909182</v>
       </c>
       <c r="F48" t="n">
-        <v>19.93761213284236</v>
+        <v>19.93761213284235</v>
       </c>
       <c r="G48" t="n">
         <v>141.7303115373089</v>
       </c>
       <c r="H48" t="n">
-        <v>10.58037469331797</v>
+        <v>10.58037469331796</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4384,25 +4384,25 @@
         <v>50.91555430653005</v>
       </c>
       <c r="P48" t="n">
-        <v>11.66314407932076</v>
+        <v>11.66314407932075</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.04674433848355783</v>
+        <v>0.04674433848355346</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6571562296016432</v>
+        <v>0.6571562296014485</v>
       </c>
       <c r="S48" t="n">
-        <v>0.4256136953319127</v>
+        <v>0.4256136953317997</v>
       </c>
       <c r="T48" t="n">
-        <v>0.2665806147224693</v>
+        <v>0.2665806147223951</v>
       </c>
       <c r="U48" t="n">
         <v>1.030485785707537</v>
       </c>
       <c r="V48" t="n">
-        <v>0.06528025614652549</v>
+        <v>0.06528025614653046</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.003975300000000459</v>
+        <v>0.003345400000000609</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4436,13 +4436,13 @@
         <v>0.03843926746930131</v>
       </c>
       <c r="F49" t="n">
-        <v>20.38411095168485</v>
+        <v>20.38411095168484</v>
       </c>
       <c r="G49" t="n">
-        <v>20.83676523949009</v>
+        <v>20.83676523949008</v>
       </c>
       <c r="H49" t="n">
-        <v>14.31996168150637</v>
+        <v>14.31996168150638</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4469,22 +4469,22 @@
         <v>34.60580719413439</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.05442860976482657</v>
+        <v>0.05442860976482642</v>
       </c>
       <c r="R49" t="n">
-        <v>0.8400984166713503</v>
+        <v>0.8400984166713682</v>
       </c>
       <c r="S49" t="n">
-        <v>0.3928272758929808</v>
+        <v>0.3928272758929895</v>
       </c>
       <c r="T49" t="n">
-        <v>1.215426808049113</v>
+        <v>1.215426808049118</v>
       </c>
       <c r="U49" t="n">
-        <v>0.9958116368977401</v>
+        <v>0.99581163689774</v>
       </c>
       <c r="V49" t="n">
-        <v>0.08228404569413873</v>
+        <v>0.08228404569413617</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.001987199999994971</v>
+        <v>0.001669899999996005</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4521,7 +4521,7 @@
         <v>18.90676582996019</v>
       </c>
       <c r="G50" t="n">
-        <v>2.69900382644978</v>
+        <v>2.699003826449793</v>
       </c>
       <c r="H50" t="n">
         <v>14.34170746421809</v>
@@ -4551,22 +4551,22 @@
         <v>33.5396620655231</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.04232745530838787</v>
+        <v>0.04232745530838825</v>
       </c>
       <c r="R50" t="n">
-        <v>1.329211039853462</v>
+        <v>1.329211039853466</v>
       </c>
       <c r="S50" t="n">
-        <v>0.1661949830630922</v>
+        <v>0.1661949830630947</v>
       </c>
       <c r="T50" t="n">
-        <v>2.200308756749441</v>
+        <v>2.200308756749471</v>
       </c>
       <c r="U50" t="n">
         <v>1.018738226192726</v>
       </c>
       <c r="V50" t="n">
-        <v>0.177248394545963</v>
+        <v>0.1772483945459626</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001789899999998568</v>
+        <v>0.001457200000004377</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4603,10 +4603,10 @@
         <v>19.38172332458886</v>
       </c>
       <c r="G51" t="n">
-        <v>51.8720782142327</v>
+        <v>51.87207821423269</v>
       </c>
       <c r="H51" t="n">
-        <v>5.962390278879591</v>
+        <v>5.962390278879594</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4627,28 +4627,28 @@
         <v>22.67245653586901</v>
       </c>
       <c r="O51" t="n">
-        <v>17.76415875258693</v>
+        <v>17.76415875258694</v>
       </c>
       <c r="P51" t="n">
-        <v>22.24346975082335</v>
+        <v>22.24346975082336</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.04757901477948221</v>
+        <v>0.04757901477948148</v>
       </c>
       <c r="R51" t="n">
-        <v>0.5530337457181965</v>
+        <v>0.5530337457181821</v>
       </c>
       <c r="S51" t="n">
-        <v>0.3087399486601928</v>
+        <v>0.3087399486601772</v>
       </c>
       <c r="T51" t="n">
-        <v>0.5923937914054861</v>
+        <v>0.5923937914054742</v>
       </c>
       <c r="U51" t="n">
-        <v>0.9102546988222167</v>
+        <v>0.9102546988222165</v>
       </c>
       <c r="V51" t="n">
-        <v>0.127563699321557</v>
+        <v>0.1275636993215481</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.001980199999998433</v>
+        <v>0.001795299999997724</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4685,10 +4685,10 @@
         <v>19.96465204049496</v>
       </c>
       <c r="G52" t="n">
-        <v>87.0998954087416</v>
+        <v>87.09989540874165</v>
       </c>
       <c r="H52" t="n">
-        <v>5.8527652471061</v>
+        <v>5.852765247106097</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4709,28 +4709,28 @@
         <v>19.26468874930528</v>
       </c>
       <c r="O52" t="n">
-        <v>24.78887777784642</v>
+        <v>24.78887777784641</v>
       </c>
       <c r="P52" t="n">
-        <v>19.5004213461399</v>
+        <v>19.50042134613989</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.04861634001643141</v>
+        <v>0.04861634001643059</v>
       </c>
       <c r="R52" t="n">
-        <v>0.5636993060888879</v>
+        <v>0.5636993060888721</v>
       </c>
       <c r="S52" t="n">
-        <v>0.3585285695494457</v>
+        <v>0.3585285695494302</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3838276517635615</v>
+        <v>0.3838276517635538</v>
       </c>
       <c r="U52" t="n">
-        <v>0.9803710503541859</v>
+        <v>0.9803710503541861</v>
       </c>
       <c r="V52" t="n">
-        <v>0.1381764854127092</v>
+        <v>0.1381764854127067</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002253400000000738</v>
+        <v>0.001843600000000833</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4767,7 +4767,7 @@
         <v>19.57808823264194</v>
       </c>
       <c r="G53" t="n">
-        <v>111.005269347757</v>
+        <v>111.0052693477571</v>
       </c>
       <c r="H53" t="n">
         <v>3.286241028705129</v>
@@ -4797,22 +4797,22 @@
         <v>16.28717557277154</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.04411546410009757</v>
+        <v>0.04411546410009785</v>
       </c>
       <c r="R53" t="n">
-        <v>0.443457260501134</v>
+        <v>0.4434572605011333</v>
       </c>
       <c r="S53" t="n">
-        <v>0.2242586847859237</v>
+        <v>0.2242586847859228</v>
       </c>
       <c r="T53" t="n">
-        <v>0.4785003183178827</v>
+        <v>0.4785003183178852</v>
       </c>
       <c r="U53" t="n">
-        <v>0.9732144711348731</v>
+        <v>0.9732144711348732</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5311796785164149</v>
+        <v>0.5311796785164131</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.002052499999997792</v>
+        <v>0.001646500000020978</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4849,7 +4849,7 @@
         <v>20.67785263156361</v>
       </c>
       <c r="G54" t="n">
-        <v>135.2819059535249</v>
+        <v>135.281905953525</v>
       </c>
       <c r="H54" t="n">
         <v>3.034892352902541</v>
@@ -4879,22 +4879,22 @@
         <v>15.90194891979542</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.04424179755509781</v>
+        <v>0.04424179755509733</v>
       </c>
       <c r="R54" t="n">
-        <v>0.4677440601014852</v>
+        <v>0.4677440601014985</v>
       </c>
       <c r="S54" t="n">
-        <v>0.1909286744936707</v>
+        <v>0.1909286744936678</v>
       </c>
       <c r="T54" t="n">
-        <v>0.6024656821828824</v>
+        <v>0.6024656821828749</v>
       </c>
       <c r="U54" t="n">
-        <v>0.923358416973556</v>
+        <v>0.9233584169735559</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7570935965686028</v>
+        <v>0.7570935965686005</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.00400020000000012</v>
+        <v>0.002215800000016088</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4928,13 +4928,13 @@
         <v>359.9116606575396</v>
       </c>
       <c r="F55" t="n">
-        <v>20.04067117847809</v>
+        <v>20.0406711784781</v>
       </c>
       <c r="G55" t="n">
         <v>151.6601679420631</v>
       </c>
       <c r="H55" t="n">
-        <v>9.74141686022223</v>
+        <v>9.741416860222236</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>43.14816278131294</v>
       </c>
       <c r="P55" t="n">
-        <v>9.780351570505321</v>
+        <v>9.780351570505337</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.04621010465422744</v>
+        <v>0.04621010465422664</v>
       </c>
       <c r="R55" t="n">
-        <v>0.5448625333618332</v>
+        <v>0.5448625333617727</v>
       </c>
       <c r="S55" t="n">
-        <v>0.3168879339004643</v>
+        <v>0.3168879339004377</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2070374265962391</v>
+        <v>0.2070374265962192</v>
       </c>
       <c r="U55" t="n">
         <v>1.121903199188235</v>
       </c>
       <c r="V55" t="n">
-        <v>0.05625771890901357</v>
+        <v>0.05625771890901914</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.003058099999996955</v>
+        <v>0.002502500000019836</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5010,13 +5010,13 @@
         <v>0.1982427097951092</v>
       </c>
       <c r="F56" t="n">
-        <v>19.24045944949547</v>
+        <v>19.24045944949546</v>
       </c>
       <c r="G56" t="n">
         <v>78.43536062020135</v>
       </c>
       <c r="H56" t="n">
-        <v>6.624168126820615</v>
+        <v>6.624168126820607</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5040,25 +5040,25 @@
         <v>26.35301826392693</v>
       </c>
       <c r="P56" t="n">
-        <v>20.33035541134811</v>
+        <v>20.33035541134809</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.04715074913764918</v>
+        <v>0.04715074913764852</v>
       </c>
       <c r="R56" t="n">
-        <v>0.5609134291811362</v>
+        <v>0.5609134291811235</v>
       </c>
       <c r="S56" t="n">
-        <v>0.3838388639386816</v>
+        <v>0.383838863938668</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3733058000873909</v>
+        <v>0.373305800087385</v>
       </c>
       <c r="U56" t="n">
-        <v>0.9837241576218632</v>
+        <v>0.9837241576218624</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4524910051111209</v>
+        <v>0.4524910051111247</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002307699999995805</v>
+        <v>0.001791300000007823</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,13 +5092,13 @@
         <v>359.9050659941375</v>
       </c>
       <c r="F57" t="n">
-        <v>20.25471979846349</v>
+        <v>20.2547197984635</v>
       </c>
       <c r="G57" t="n">
         <v>16.94432524160147</v>
       </c>
       <c r="H57" t="n">
-        <v>15.45044359114391</v>
+        <v>15.45044359114392</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -5125,22 +5125,22 @@
         <v>35.97354173106221</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.05387452511365724</v>
+        <v>0.05387452511365654</v>
       </c>
       <c r="R57" t="n">
-        <v>0.8827578033867268</v>
+        <v>0.882757803386733</v>
       </c>
       <c r="S57" t="n">
-        <v>0.3669059062381161</v>
+        <v>0.3669059062381139</v>
       </c>
       <c r="T57" t="n">
-        <v>1.36364865427542</v>
+        <v>1.363648654275391</v>
       </c>
       <c r="U57" t="n">
-        <v>0.9771334193725094</v>
+        <v>0.9771334193725096</v>
       </c>
       <c r="V57" t="n">
-        <v>0.2305660130542709</v>
+        <v>0.2305660130542721</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.00213409999999925</v>
+        <v>0.002276499999993575</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>176.0891377656285</v>
       </c>
       <c r="H58" t="n">
-        <v>6.804685678381511</v>
+        <v>6.804685678381514</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5204,25 +5204,25 @@
         <v>10.25213663483217</v>
       </c>
       <c r="P58" t="n">
-        <v>9.531259236591945</v>
+        <v>9.531259236591941</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.03558052891914562</v>
+        <v>0.03558052891914653</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3710442085846427</v>
+        <v>0.3710442085846389</v>
       </c>
       <c r="S58" t="n">
-        <v>0.1045128637613324</v>
+        <v>0.1045128637613362</v>
       </c>
       <c r="T58" t="n">
-        <v>0.5339233262581964</v>
+        <v>0.5339233262582068</v>
       </c>
       <c r="U58" t="n">
         <v>0.9589597303127708</v>
       </c>
       <c r="V58" t="n">
-        <v>0.2298236567788344</v>
+        <v>0.2298236567788328</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.001979099999999789</v>
+        <v>0.001636200000007193</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5256,13 +5256,13 @@
         <v>359.9114117737715</v>
       </c>
       <c r="F59" t="n">
-        <v>18.90110739362666</v>
+        <v>18.90110739362665</v>
       </c>
       <c r="G59" t="n">
-        <v>12.7800555759505</v>
+        <v>12.78005557595048</v>
       </c>
       <c r="H59" t="n">
-        <v>7.746248969212878</v>
+        <v>7.746248969212896</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5286,25 +5286,25 @@
         <v>7.188957499480155</v>
       </c>
       <c r="P59" t="n">
-        <v>25.55079721486862</v>
+        <v>25.55079721486864</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.04307179445617001</v>
+        <v>0.04307179445616897</v>
       </c>
       <c r="R59" t="n">
-        <v>0.7363006128912599</v>
+        <v>0.7363006128912623</v>
       </c>
       <c r="S59" t="n">
-        <v>0.1891337828094595</v>
+        <v>0.1891337828094553</v>
       </c>
       <c r="T59" t="n">
-        <v>1.195566842488204</v>
+        <v>1.195566842488165</v>
       </c>
       <c r="U59" t="n">
         <v>1.090824133657707</v>
       </c>
       <c r="V59" t="n">
-        <v>1.030181284062535</v>
+        <v>1.030181284062544</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001760199999999656</v>
+        <v>0.001435300000025563</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5341,10 +5341,10 @@
         <v>18.72349537877822</v>
       </c>
       <c r="G60" t="n">
-        <v>62.49047345656147</v>
+        <v>62.49047345656148</v>
       </c>
       <c r="H60" t="n">
-        <v>8.134588568814198</v>
+        <v>8.134588568814189</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>25.45827708788781</v>
       </c>
       <c r="P60" t="n">
-        <v>22.83305231446821</v>
+        <v>22.83305231446819</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.04789296920359433</v>
+        <v>0.04789296920359681</v>
       </c>
       <c r="R60" t="n">
-        <v>0.579694490676428</v>
+        <v>0.5796944906764674</v>
       </c>
       <c r="S60" t="n">
-        <v>0.4180065025188466</v>
+        <v>0.418006502518891</v>
       </c>
       <c r="T60" t="n">
-        <v>0.4354775349260847</v>
+        <v>0.4354775349261167</v>
       </c>
       <c r="U60" t="n">
         <v>0.9417194295351257</v>
       </c>
       <c r="V60" t="n">
-        <v>0.3044663452605645</v>
+        <v>0.3044663452605676</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.001970599999999934</v>
+        <v>0.001611200000013469</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5453,22 +5453,22 @@
         <v>11.35575120555986</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.03825855132107762</v>
+        <v>0.03825855132107685</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3711815799999816</v>
+        <v>0.3711815799999781</v>
       </c>
       <c r="S61" t="n">
-        <v>0.1306277708468132</v>
+        <v>0.1306277708468113</v>
       </c>
       <c r="T61" t="n">
-        <v>0.5221880026101232</v>
+        <v>0.5221880026101102</v>
       </c>
       <c r="U61" t="n">
         <v>1.004454116378263</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3024423878210878</v>
+        <v>0.3024423878210871</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.002931600000003698</v>
+        <v>0.0017483000000027</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.93407789524218</v>
       </c>
       <c r="G62" t="n">
-        <v>53.77562343008557</v>
+        <v>53.7756234300856</v>
       </c>
       <c r="H62" t="n">
-        <v>5.862209096533948</v>
+        <v>5.862209096533949</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5532,25 +5532,25 @@
         <v>16.83859257540005</v>
       </c>
       <c r="P62" t="n">
-        <v>23.48157193298605</v>
+        <v>23.48157193298606</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.05135611285775674</v>
+        <v>0.0513561128577561</v>
       </c>
       <c r="R62" t="n">
-        <v>0.6316144486914114</v>
+        <v>0.6316144486913983</v>
       </c>
       <c r="S62" t="n">
-        <v>0.3306787226750514</v>
+        <v>0.3306787226750438</v>
       </c>
       <c r="T62" t="n">
-        <v>0.6668826963653496</v>
+        <v>0.6668826963653395</v>
       </c>
       <c r="U62" t="n">
         <v>1.070875730543165</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4840613589520604</v>
+        <v>0.4840613589520599</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.00201640000000225</v>
+        <v>0.001556600000014896</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5590,7 +5590,7 @@
         <v>147.5362714972603</v>
       </c>
       <c r="H63" t="n">
-        <v>5.30698498435707</v>
+        <v>5.306984984357071</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>13.28086158735539</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.04456799957482727</v>
+        <v>0.04456799957482723</v>
       </c>
       <c r="R63" t="n">
-        <v>0.4220943291396581</v>
+        <v>0.4220943291396544</v>
       </c>
       <c r="S63" t="n">
-        <v>0.2189472082766182</v>
+        <v>0.2189472082766171</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3690007301346974</v>
+        <v>0.3690007301346998</v>
       </c>
       <c r="U63" t="n">
         <v>1.031263877115838</v>
       </c>
       <c r="V63" t="n">
-        <v>0.188832637162204</v>
+        <v>0.1888326371622054</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.001981600000000583</v>
+        <v>0.001642099999997981</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5672,7 +5672,7 @@
         <v>6.992777403426643</v>
       </c>
       <c r="H64" t="n">
-        <v>7.611224370068523</v>
+        <v>7.611224370068517</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>27.90006250038108</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.04685268470829953</v>
+        <v>0.04685268470829961</v>
       </c>
       <c r="R64" t="n">
-        <v>1.084552603377824</v>
+        <v>1.084552603377831</v>
       </c>
       <c r="S64" t="n">
-        <v>0.1756984470303934</v>
+        <v>0.1756984470303923</v>
       </c>
       <c r="T64" t="n">
-        <v>1.75930249908069</v>
+        <v>1.759302499080698</v>
       </c>
       <c r="U64" t="n">
-        <v>0.8939792904649323</v>
+        <v>0.8939792904649325</v>
       </c>
       <c r="V64" t="n">
-        <v>0.4010943012718924</v>
+        <v>0.4010943012718945</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001771300000001474</v>
+        <v>0.001671500000014703</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9579311323372</v>
       </c>
       <c r="F65" t="n">
-        <v>20.34948206817935</v>
+        <v>20.34948206817934</v>
       </c>
       <c r="G65" t="n">
         <v>100.4342050999107</v>
       </c>
       <c r="H65" t="n">
-        <v>7.89662209381004</v>
+        <v>7.896622093810032</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>18.89625465573057</v>
       </c>
       <c r="O65" t="n">
-        <v>33.18385513682538</v>
+        <v>33.18385513682539</v>
       </c>
       <c r="P65" t="n">
-        <v>19.13801537726066</v>
+        <v>19.13801537726064</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.05032530459922008</v>
+        <v>0.05032530459922123</v>
       </c>
       <c r="R65" t="n">
-        <v>0.6467381120259752</v>
+        <v>0.6467381120259603</v>
       </c>
       <c r="S65" t="n">
-        <v>0.4604887151109233</v>
+        <v>0.4604887151109199</v>
       </c>
       <c r="T65" t="n">
-        <v>0.2553081316547803</v>
+        <v>0.2553081316547863</v>
       </c>
       <c r="U65" t="n">
         <v>0.9595729136478985</v>
       </c>
       <c r="V65" t="n">
-        <v>0.08572837422199703</v>
+        <v>0.08572837422199431</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.002206499999999778</v>
+        <v>0.001843000000008033</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5833,10 +5833,10 @@
         <v>20.07706533115718</v>
       </c>
       <c r="G66" t="n">
-        <v>69.7261487782104</v>
+        <v>69.72614877821042</v>
       </c>
       <c r="H66" t="n">
-        <v>9.45529662708339</v>
+        <v>9.455296627083388</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5863,22 +5863,22 @@
         <v>24.48379829107287</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.05082909977785818</v>
+        <v>0.05082909977785777</v>
       </c>
       <c r="R66" t="n">
-        <v>0.7031017383505282</v>
+        <v>0.7031017383504541</v>
       </c>
       <c r="S66" t="n">
-        <v>0.5331231864388204</v>
+        <v>0.5331231864387694</v>
       </c>
       <c r="T66" t="n">
-        <v>0.4133176531530048</v>
+        <v>0.4133176531529967</v>
       </c>
       <c r="U66" t="n">
         <v>1.079699772819597</v>
       </c>
       <c r="V66" t="n">
-        <v>0.1575215175426957</v>
+        <v>0.1575215175426964</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.004463100000002385</v>
+        <v>0.001849100000015369</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5915,10 +5915,10 @@
         <v>19.86141408744969</v>
       </c>
       <c r="G67" t="n">
-        <v>37.92993107221747</v>
+        <v>37.92993107221746</v>
       </c>
       <c r="H67" t="n">
-        <v>3.346864501993771</v>
+        <v>3.346864501993772</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5945,22 +5945,22 @@
         <v>20.74335852836315</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.04492331793018955</v>
+        <v>0.04492331793019057</v>
       </c>
       <c r="R67" t="n">
-        <v>0.5795980521268862</v>
+        <v>0.5795980521268861</v>
       </c>
       <c r="S67" t="n">
-        <v>0.198195673982324</v>
+        <v>0.1981956739823327</v>
       </c>
       <c r="T67" t="n">
-        <v>0.8639260162095714</v>
+        <v>0.8639260162096044</v>
       </c>
       <c r="U67" t="n">
-        <v>0.9921761914425635</v>
+        <v>0.9921761914425632</v>
       </c>
       <c r="V67" t="n">
-        <v>0.08917934819006931</v>
+        <v>0.0891793481900691</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.001980600000003108</v>
+        <v>0.002298300000006748</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>19.52289841067038</v>
       </c>
       <c r="G68" t="n">
-        <v>28.82196771618431</v>
+        <v>28.82196771618432</v>
       </c>
       <c r="H68" t="n">
-        <v>4.142981814711202</v>
+        <v>4.142981814711197</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>21.55438547666835</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.043669052904532</v>
+        <v>0.0436690529045326</v>
       </c>
       <c r="R68" t="n">
-        <v>0.5978179242958486</v>
+        <v>0.5978179242958513</v>
       </c>
       <c r="S68" t="n">
-        <v>0.1929407898191738</v>
+        <v>0.1929407898191743</v>
       </c>
       <c r="T68" t="n">
-        <v>0.912089750718673</v>
+        <v>0.9120897507186903</v>
       </c>
       <c r="U68" t="n">
         <v>0.9812624016374597</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3778921109835956</v>
+        <v>0.3778921109835988</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002280400000003624</v>
+        <v>0.001631500000002006</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6076,13 +6076,13 @@
         <v>0.2589122303604204</v>
       </c>
       <c r="F69" t="n">
-        <v>18.97103743742675</v>
+        <v>18.97103743742671</v>
       </c>
       <c r="G69" t="n">
         <v>98.59223447924053</v>
       </c>
       <c r="H69" t="n">
-        <v>12.25326072773063</v>
+        <v>12.2532607277306</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>22.71174981430071</v>
       </c>
       <c r="O69" t="n">
-        <v>48.12896362969534</v>
+        <v>48.12896362969535</v>
       </c>
       <c r="P69" t="n">
-        <v>21.21142454789718</v>
+        <v>21.21142454789712</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.04725144678157709</v>
+        <v>0.04725144678157982</v>
       </c>
       <c r="R69" t="n">
-        <v>0.7692086965244349</v>
+        <v>0.7692086965245389</v>
       </c>
       <c r="S69" t="n">
-        <v>0.7261664638778969</v>
+        <v>0.7261664638780012</v>
       </c>
       <c r="T69" t="n">
-        <v>0.1666054244962023</v>
+        <v>0.1666054244962035</v>
       </c>
       <c r="U69" t="n">
-        <v>0.974828465984122</v>
+        <v>0.9748284659841218</v>
       </c>
       <c r="V69" t="n">
-        <v>0.3735535660733356</v>
+        <v>0.3735535660733461</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.002464299999999753</v>
+        <v>0.002013099999999213</v>
       </c>
       <c r="Y69" t="n">
         <v>10</v>
@@ -6161,10 +6161,10 @@
         <v>19.75402146431103</v>
       </c>
       <c r="G70" t="n">
-        <v>48.55500128705039</v>
+        <v>48.55500128705046</v>
       </c>
       <c r="H70" t="n">
-        <v>3.309508946333473</v>
+        <v>3.309508946333467</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6188,25 +6188,25 @@
         <v>11.77053862058283</v>
       </c>
       <c r="P70" t="n">
-        <v>20.19088376160786</v>
+        <v>20.19088376160785</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.04473020568321922</v>
+        <v>0.04473020568321873</v>
       </c>
       <c r="R70" t="n">
-        <v>0.5389163756005283</v>
+        <v>0.5389163756005216</v>
       </c>
       <c r="S70" t="n">
-        <v>0.2108768616011777</v>
+        <v>0.2108768616011746</v>
       </c>
       <c r="T70" t="n">
-        <v>0.7572418653882462</v>
+        <v>0.7572418653882363</v>
       </c>
       <c r="U70" t="n">
         <v>1.006110785097542</v>
       </c>
       <c r="V70" t="n">
-        <v>0.2512609796672584</v>
+        <v>0.2512609796672657</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.001974699999998109</v>
+        <v>0.001636700000005931</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,10 +6240,10 @@
         <v>0.1689386139029308</v>
       </c>
       <c r="F71" t="n">
-        <v>18.44139218617564</v>
+        <v>18.44139218617563</v>
       </c>
       <c r="G71" t="n">
-        <v>52.62857805822987</v>
+        <v>52.62857805822986</v>
       </c>
       <c r="H71" t="n">
         <v>11.40044288477807</v>
@@ -6273,22 +6273,22 @@
         <v>26.99136449895821</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.04883124701476892</v>
+        <v>0.04883124701476737</v>
       </c>
       <c r="R71" t="n">
-        <v>0.6515868384326292</v>
+        <v>0.6515868384325889</v>
       </c>
       <c r="S71" t="n">
-        <v>0.5276393050516269</v>
+        <v>0.5276393050515877</v>
       </c>
       <c r="T71" t="n">
-        <v>0.521482511165194</v>
+        <v>0.5214825111651649</v>
       </c>
       <c r="U71" t="n">
-        <v>1.045639623776061</v>
+        <v>1.04563962377606</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4779583336223611</v>
+        <v>0.4779583336223619</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002020000000001687</v>
+        <v>0.001717299999995703</v>
       </c>
       <c r="Y71" t="n">
         <v>8</v>
@@ -6322,13 +6322,13 @@
         <v>0.1305974015249263</v>
       </c>
       <c r="F72" t="n">
-        <v>19.21780303140882</v>
+        <v>19.21780303140877</v>
       </c>
       <c r="G72" t="n">
-        <v>167.741374176799</v>
+        <v>167.7413741767991</v>
       </c>
       <c r="H72" t="n">
-        <v>12.84655575843512</v>
+        <v>12.84655575843509</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6349,28 +6349,28 @@
         <v>5.091810049838018</v>
       </c>
       <c r="O72" t="n">
-        <v>71.09282103191951</v>
+        <v>71.09282103191953</v>
       </c>
       <c r="P72" t="n">
-        <v>4.743358022296329</v>
+        <v>4.743358022296306</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.04244802000090073</v>
+        <v>0.04244802000090672</v>
       </c>
       <c r="R72" t="n">
-        <v>0.7630956336873903</v>
+        <v>0.7630956336876156</v>
       </c>
       <c r="S72" t="n">
-        <v>0.3154692576713303</v>
+        <v>0.315469257671418</v>
       </c>
       <c r="T72" t="n">
-        <v>0.5335329811929802</v>
+        <v>0.5335329811931381</v>
       </c>
       <c r="U72" t="n">
         <v>1.009132187340926</v>
       </c>
       <c r="V72" t="n">
-        <v>0.2838821416549206</v>
+        <v>0.2838821416549286</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.00495809999999608</v>
+        <v>0.004281899999995176</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6410,7 +6410,7 @@
         <v>36.32099998009866</v>
       </c>
       <c r="H73" t="n">
-        <v>6.83979390195098</v>
+        <v>6.839793901950978</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>25.12389119520499</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.05013142564413745</v>
+        <v>0.05013142564413739</v>
       </c>
       <c r="R73" t="n">
-        <v>0.6420931003330628</v>
+        <v>0.6420931003330559</v>
       </c>
       <c r="S73" t="n">
-        <v>0.3025067335219912</v>
+        <v>0.30250673352199</v>
       </c>
       <c r="T73" t="n">
         <v>0.816499140867991</v>
       </c>
       <c r="U73" t="n">
-        <v>0.9789533331115766</v>
+        <v>0.9789533331115763</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3788284082656521</v>
+        <v>0.3788284082656527</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.00199959999999777</v>
+        <v>0.001781199999982164</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6489,7 +6489,7 @@
         <v>19.85940155712211</v>
       </c>
       <c r="G74" t="n">
-        <v>18.66125353921866</v>
+        <v>18.66125353921867</v>
       </c>
       <c r="H74" t="n">
         <v>12.0268623147314</v>
@@ -6516,25 +6516,25 @@
         <v>10.55522470904565</v>
       </c>
       <c r="P74" t="n">
-        <v>31.44865606795501</v>
+        <v>31.448656067955</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.05085781051345045</v>
+        <v>0.05085781051344988</v>
       </c>
       <c r="R74" t="n">
-        <v>0.7763944356660799</v>
+        <v>0.7763944356660901</v>
       </c>
       <c r="S74" t="n">
-        <v>0.3121205136540749</v>
+        <v>0.312120513654077</v>
       </c>
       <c r="T74" t="n">
-        <v>1.17778579736423</v>
+        <v>1.177785797364217</v>
       </c>
       <c r="U74" t="n">
-        <v>1.009026054313613</v>
+        <v>1.009026054313614</v>
       </c>
       <c r="V74" t="n">
-        <v>0.2453390456053148</v>
+        <v>0.2453390456053132</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.00197459999999694</v>
+        <v>0.001715300000000752</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6568,13 +6568,13 @@
         <v>359.9204546689788</v>
       </c>
       <c r="F75" t="n">
-        <v>20.94129037611057</v>
+        <v>20.94129037611055</v>
       </c>
       <c r="G75" t="n">
         <v>114.8162330308645</v>
       </c>
       <c r="H75" t="n">
-        <v>10.14475237329064</v>
+        <v>10.14475237329063</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>42.69073040886813</v>
       </c>
       <c r="P75" t="n">
-        <v>17.97966667653224</v>
+        <v>17.97966667653223</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.05210560358209199</v>
+        <v>0.0521056035820917</v>
       </c>
       <c r="R75" t="n">
-        <v>0.7533593623095426</v>
+        <v>0.7533593623095676</v>
       </c>
       <c r="S75" t="n">
-        <v>0.5617522798422855</v>
+        <v>0.5617522798422956</v>
       </c>
       <c r="T75" t="n">
-        <v>0.1973098557065408</v>
+        <v>0.197309855706547</v>
       </c>
       <c r="U75" t="n">
-        <v>0.9106836655738884</v>
+        <v>0.9106836655738878</v>
       </c>
       <c r="V75" t="n">
-        <v>0.36570365038629</v>
+        <v>0.3657036503862858</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.00393789999999683</v>
+        <v>0.001754599999998163</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6683,19 +6683,19 @@
         <v>30.61559474107304</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.05319926445672862</v>
+        <v>0.05319926445672951</v>
       </c>
       <c r="R76" t="n">
-        <v>0.7351216977905284</v>
+        <v>0.7351216977905715</v>
       </c>
       <c r="S76" t="n">
-        <v>0.472979853291181</v>
+        <v>0.4729798532912193</v>
       </c>
       <c r="T76" t="n">
-        <v>0.8015912348229381</v>
+        <v>0.8015912348229792</v>
       </c>
       <c r="U76" t="n">
-        <v>0.9105385047300751</v>
+        <v>0.9105385047300748</v>
       </c>
       <c r="V76" t="n">
         <v>0.07759938126587437</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001755700000003912</v>
+        <v>0.00143890000001079</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6738,7 +6738,7 @@
         <v>98.58986455863715</v>
       </c>
       <c r="H77" t="n">
-        <v>4.194286450621588</v>
+        <v>4.194286450621592</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6759,28 +6759,28 @@
         <v>17.33986823530514</v>
       </c>
       <c r="O77" t="n">
-        <v>19.16347851000356</v>
+        <v>19.16347851000357</v>
       </c>
       <c r="P77" t="n">
         <v>18.51423925358345</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.04902901377094172</v>
+        <v>0.04902901377094153</v>
       </c>
       <c r="R77" t="n">
-        <v>0.5387517013349273</v>
+        <v>0.5387517013349093</v>
       </c>
       <c r="S77" t="n">
-        <v>0.2869085118111863</v>
+        <v>0.286908511811181</v>
       </c>
       <c r="T77" t="n">
         <v>0.4859150190021436</v>
       </c>
       <c r="U77" t="n">
-        <v>0.9584781206635667</v>
+        <v>0.9584781206635664</v>
       </c>
       <c r="V77" t="n">
-        <v>0.5420724192805552</v>
+        <v>0.542072419280565</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.001955800000004615</v>
+        <v>0.001718699999997853</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6817,7 +6817,7 @@
         <v>19.84117533965178</v>
       </c>
       <c r="G78" t="n">
-        <v>56.11050907125878</v>
+        <v>56.11050907125879</v>
       </c>
       <c r="H78" t="n">
         <v>12.78565549578168</v>
@@ -6844,25 +6844,25 @@
         <v>28.30166142902094</v>
       </c>
       <c r="P78" t="n">
-        <v>29.27983112013395</v>
+        <v>29.27983112013394</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.05383169420709841</v>
+        <v>0.05383169420710054</v>
       </c>
       <c r="R78" t="n">
-        <v>0.7776178108279447</v>
+        <v>0.777617810828045</v>
       </c>
       <c r="S78" t="n">
-        <v>0.6464054375065889</v>
+        <v>0.6464054375066772</v>
       </c>
       <c r="T78" t="n">
-        <v>0.5503512265645667</v>
+        <v>0.5503512265646122</v>
       </c>
       <c r="U78" t="n">
-        <v>0.953471889092536</v>
+        <v>0.9534718890925352</v>
       </c>
       <c r="V78" t="n">
-        <v>0.05761618108367223</v>
+        <v>0.05761618108367352</v>
       </c>
       <c r="W78" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002256799999997838</v>
+        <v>0.001783799999998337</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6902,7 +6902,7 @@
         <v>165.2880360085666</v>
       </c>
       <c r="H79" t="n">
-        <v>10.68380157771871</v>
+        <v>10.68380157771872</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6923,28 +6923,28 @@
         <v>6.622093328573639</v>
       </c>
       <c r="O79" t="n">
-        <v>41.54971841041176</v>
+        <v>41.54971841041178</v>
       </c>
       <c r="P79" t="n">
-        <v>6.69025463295593</v>
+        <v>6.690254632955929</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0439453089517768</v>
+        <v>0.04394530895176886</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4795461837841592</v>
+        <v>0.479546183783972</v>
       </c>
       <c r="S79" t="n">
-        <v>0.2429815698773574</v>
+        <v>0.2429815698772721</v>
       </c>
       <c r="T79" t="n">
-        <v>0.2014159215395197</v>
+        <v>0.2014159215394576</v>
       </c>
       <c r="U79" t="n">
-        <v>0.9986462948422136</v>
+        <v>0.9986462948422133</v>
       </c>
       <c r="V79" t="n">
-        <v>0.04967110497760577</v>
+        <v>0.04967110497759761</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003062599999999804</v>
+        <v>0.002444999999994479</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -7011,16 +7011,16 @@
         <v>31.01263141922825</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.04922913999865629</v>
+        <v>0.04922913999865625</v>
       </c>
       <c r="R80" t="n">
-        <v>0.9932174731359925</v>
+        <v>0.9932174731359992</v>
       </c>
       <c r="S80" t="n">
-        <v>0.224343835460184</v>
+        <v>0.2243438354601842</v>
       </c>
       <c r="T80" t="n">
-        <v>1.636884792669837</v>
+        <v>1.636884792669831</v>
       </c>
       <c r="U80" t="n">
         <v>1.004368582114115</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.0020150000000001</v>
+        <v>0.001711900000003652</v>
       </c>
       <c r="Y80" t="n">
         <v>8</v>
@@ -7060,13 +7060,13 @@
         <v>359.7093473246438</v>
       </c>
       <c r="F81" t="n">
-        <v>20.54081937726513</v>
+        <v>20.54081937726512</v>
       </c>
       <c r="G81" t="n">
-        <v>86.50587212697931</v>
+        <v>86.50587212697933</v>
       </c>
       <c r="H81" t="n">
-        <v>9.39613206931315</v>
+        <v>9.396132069313142</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>33.50438060558126</v>
       </c>
       <c r="P81" t="n">
-        <v>22.31999246984317</v>
+        <v>22.31999246984315</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.05378008710330874</v>
+        <v>0.05378008710330383</v>
       </c>
       <c r="R81" t="n">
-        <v>0.7241014844161713</v>
+        <v>0.724101484415994</v>
       </c>
       <c r="S81" t="n">
-        <v>0.5567607323218036</v>
+        <v>0.5567607323216675</v>
       </c>
       <c r="T81" t="n">
-        <v>0.2941540887134725</v>
+        <v>0.2941540887134574</v>
       </c>
       <c r="U81" t="n">
-        <v>0.9436185516431256</v>
+        <v>0.9436185516431264</v>
       </c>
       <c r="V81" t="n">
-        <v>0.4453908580937261</v>
+        <v>0.4453908580937224</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.002222400000000846</v>
+        <v>0.001807100000007722</v>
       </c>
       <c r="Y81" t="n">
         <v>9</v>
@@ -7172,25 +7172,25 @@
         <v>42.17875629055725</v>
       </c>
       <c r="P82" t="n">
-        <v>21.65825789880787</v>
+        <v>21.65825789880786</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.05129792132308417</v>
+        <v>0.05129792132308376</v>
       </c>
       <c r="R82" t="n">
-        <v>0.7674931015178071</v>
+        <v>0.7674931015177904</v>
       </c>
       <c r="S82" t="n">
-        <v>0.6637063702738789</v>
+        <v>0.6637063702738619</v>
       </c>
       <c r="T82" t="n">
-        <v>0.1944931849957345</v>
+        <v>0.1944931849957365</v>
       </c>
       <c r="U82" t="n">
-        <v>0.9547887621364171</v>
+        <v>0.9547887621364167</v>
       </c>
       <c r="V82" t="n">
-        <v>0.1573910031345368</v>
+        <v>0.1573910031345373</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.004284499999997138</v>
+        <v>0.001992200000017874</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7227,10 +7227,10 @@
         <v>20.93518478601017</v>
       </c>
       <c r="G83" t="n">
-        <v>69.89565203217028</v>
+        <v>69.89565203217025</v>
       </c>
       <c r="H83" t="n">
-        <v>6.80689008360991</v>
+        <v>6.806890083609914</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -7254,25 +7254,25 @@
         <v>22.90424079537221</v>
       </c>
       <c r="P83" t="n">
-        <v>22.93457656142298</v>
+        <v>22.93457656142299</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.05157671003853548</v>
+        <v>0.05157671003853779</v>
       </c>
       <c r="R83" t="n">
-        <v>0.6597912195608168</v>
+        <v>0.6597912195608513</v>
       </c>
       <c r="S83" t="n">
-        <v>0.4113181086376727</v>
+        <v>0.4113181086377121</v>
       </c>
       <c r="T83" t="n">
-        <v>0.4990121857840913</v>
+        <v>0.4990121857841225</v>
       </c>
       <c r="U83" t="n">
         <v>1.011708499649893</v>
       </c>
       <c r="V83" t="n">
-        <v>0.3126966178578293</v>
+        <v>0.3126966178578269</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002012800000002812</v>
+        <v>0.0022653000000048</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,13 +7306,13 @@
         <v>359.8337295186695</v>
       </c>
       <c r="F84" t="n">
-        <v>19.93104031728267</v>
+        <v>19.93104031728268</v>
       </c>
       <c r="G84" t="n">
         <v>47.69876474729941</v>
       </c>
       <c r="H84" t="n">
-        <v>11.42761067743699</v>
+        <v>11.427610677437</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7333,28 +7333,28 @@
         <v>27.91456839119444</v>
       </c>
       <c r="O84" t="n">
-        <v>22.97777204377762</v>
+        <v>22.97777204377763</v>
       </c>
       <c r="P84" t="n">
-        <v>28.83152006183415</v>
+        <v>28.83152006183417</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.05354387210938823</v>
+        <v>0.05354387210938843</v>
       </c>
       <c r="R84" t="n">
-        <v>0.7307291872954248</v>
+        <v>0.7307291872954512</v>
       </c>
       <c r="S84" t="n">
-        <v>0.5248794038743035</v>
+        <v>0.524879403874319</v>
       </c>
       <c r="T84" t="n">
-        <v>0.6409178195491282</v>
+        <v>0.6409178195491342</v>
       </c>
       <c r="U84" t="n">
         <v>1.077806563789927</v>
       </c>
       <c r="V84" t="n">
-        <v>0.2871218562997485</v>
+        <v>0.2871218562997521</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.001960400000001528</v>
+        <v>0.001630799999986721</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7388,13 +7388,13 @@
         <v>0.004944732083061515</v>
       </c>
       <c r="F85" t="n">
-        <v>19.28511008854942</v>
+        <v>19.28511008854943</v>
       </c>
       <c r="G85" t="n">
-        <v>45.91864690078675</v>
+        <v>45.91864690078676</v>
       </c>
       <c r="H85" t="n">
-        <v>10.68794524663896</v>
+        <v>10.68794524663897</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7415,28 +7415,28 @@
         <v>28.81480572929693</v>
       </c>
       <c r="O85" t="n">
-        <v>22.08821015581696</v>
+        <v>22.08821015581697</v>
       </c>
       <c r="P85" t="n">
-        <v>27.61821339246899</v>
+        <v>27.61821339246901</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.05091998952435174</v>
+        <v>0.05091998952434865</v>
       </c>
       <c r="R85" t="n">
-        <v>0.6717416259891432</v>
+        <v>0.6717416259891393</v>
       </c>
       <c r="S85" t="n">
-        <v>0.471195089941722</v>
+        <v>0.4711950899416883</v>
       </c>
       <c r="T85" t="n">
-        <v>0.6261745044512387</v>
+        <v>0.6261745044511799</v>
       </c>
       <c r="U85" t="n">
-        <v>0.9900091113102613</v>
+        <v>0.9900091113102609</v>
       </c>
       <c r="V85" t="n">
-        <v>0.2209149122926815</v>
+        <v>0.2209149122926712</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002007000000006087</v>
+        <v>0.001618000000007669</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7476,7 +7476,7 @@
         <v>7.760287367325025</v>
       </c>
       <c r="H86" t="n">
-        <v>7.127137192770438</v>
+        <v>7.127137192770433</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>26.69641354635652</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.04734300659978834</v>
+        <v>0.047343006599787</v>
       </c>
       <c r="R86" t="n">
-        <v>0.9989190096883372</v>
+        <v>0.9989190096883241</v>
       </c>
       <c r="S86" t="n">
-        <v>0.1749668320450294</v>
+        <v>0.1749668320450241</v>
       </c>
       <c r="T86" t="n">
-        <v>1.617236471987056</v>
+        <v>1.61723647198699</v>
       </c>
       <c r="U86" t="n">
         <v>1.117473759834201</v>
       </c>
       <c r="V86" t="n">
-        <v>0.176705403721195</v>
+        <v>0.1767054037211963</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001733500000000276</v>
+        <v>0.00138100000000918</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7555,10 +7555,10 @@
         <v>20.06217010960609</v>
       </c>
       <c r="G87" t="n">
-        <v>111.2555777598625</v>
+        <v>111.2555777598626</v>
       </c>
       <c r="H87" t="n">
-        <v>9.134250971238549</v>
+        <v>9.134250971238552</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7585,22 +7585,22 @@
         <v>17.65354915514465</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.04891952612678582</v>
+        <v>0.04891952612678357</v>
       </c>
       <c r="R87" t="n">
-        <v>0.6704495568517983</v>
+        <v>0.670449556851755</v>
       </c>
       <c r="S87" t="n">
-        <v>0.5022853514614772</v>
+        <v>0.5022853514614338</v>
       </c>
       <c r="T87" t="n">
-        <v>0.1886147549049778</v>
+        <v>0.1886147549049829</v>
       </c>
       <c r="U87" t="n">
         <v>1.020739595121801</v>
       </c>
       <c r="V87" t="n">
-        <v>0.04627402076631211</v>
+        <v>0.04627402076630489</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002313400000005572</v>
+        <v>0.001882599999987633</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7637,10 +7637,10 @@
         <v>20.0423875993966</v>
       </c>
       <c r="G88" t="n">
-        <v>39.66894325338087</v>
+        <v>39.66894325338093</v>
       </c>
       <c r="H88" t="n">
-        <v>4.976177354093276</v>
+        <v>4.976177354093269</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>22.57679050195701</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.04738059078767904</v>
+        <v>0.04738059078768021</v>
       </c>
       <c r="R88" t="n">
-        <v>0.5855223202125113</v>
+        <v>0.5855223202125097</v>
       </c>
       <c r="S88" t="n">
-        <v>0.2507666493759436</v>
+        <v>0.2507666493759467</v>
       </c>
       <c r="T88" t="n">
-        <v>0.7881165074304954</v>
+        <v>0.7881165074305204</v>
       </c>
       <c r="U88" t="n">
         <v>1.01330238385041</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3817082565106337</v>
+        <v>0.3817082565106389</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.001978399999998715</v>
+        <v>0.001648200000005318</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.02632055397084871</v>
       </c>
       <c r="F89" t="n">
-        <v>19.98794798939112</v>
+        <v>19.98794798939113</v>
       </c>
       <c r="G89" t="n">
         <v>118.435344968057</v>
       </c>
       <c r="H89" t="n">
-        <v>14.39896035394379</v>
+        <v>14.3989603539438</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7749,22 +7749,22 @@
         <v>18.75404331946843</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.05069474090159122</v>
+        <v>0.05069474090159554</v>
       </c>
       <c r="R89" t="n">
-        <v>0.9635762316788991</v>
+        <v>0.9635762316791451</v>
       </c>
       <c r="S89" t="n">
-        <v>0.8671632172047564</v>
+        <v>0.8671632172049665</v>
       </c>
       <c r="T89" t="n">
-        <v>0.3790431896269932</v>
+        <v>0.379043189627089</v>
       </c>
       <c r="U89" t="n">
         <v>1.009383522803159</v>
       </c>
       <c r="V89" t="n">
-        <v>0.03159099603989629</v>
+        <v>0.03159099603989679</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.006887800000001221</v>
+        <v>0.003427899999991268</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7798,13 +7798,13 @@
         <v>0.0009404183273798534</v>
       </c>
       <c r="F90" t="n">
-        <v>21.00503113146745</v>
+        <v>21.00503113146747</v>
       </c>
       <c r="G90" t="n">
         <v>116.1330427641511</v>
       </c>
       <c r="H90" t="n">
-        <v>9.69041424280436</v>
+        <v>9.690414242804367</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>16.60650249154164</v>
       </c>
       <c r="O90" t="n">
-        <v>41.19104695692426</v>
+        <v>41.19104695692427</v>
       </c>
       <c r="P90" t="n">
         <v>17.62990232664908</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.05141196311575227</v>
+        <v>0.05141196311575383</v>
       </c>
       <c r="R90" t="n">
-        <v>0.7331212645610531</v>
+        <v>0.733121264561047</v>
       </c>
       <c r="S90" t="n">
-        <v>0.5313599949672124</v>
+        <v>0.5313599949672216</v>
       </c>
       <c r="T90" t="n">
-        <v>0.1979672820346923</v>
+        <v>0.1979672820346846</v>
       </c>
       <c r="U90" t="n">
-        <v>0.9961294084673226</v>
+        <v>0.9961294084673225</v>
       </c>
       <c r="V90" t="n">
-        <v>0.2954495833253478</v>
+        <v>0.2954495833253571</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.002191299999999785</v>
+        <v>0.001859999999993533</v>
       </c>
       <c r="Y90" t="n">
         <v>9</v>
@@ -7886,7 +7886,7 @@
         <v>94.87092877074393</v>
       </c>
       <c r="H91" t="n">
-        <v>5.764537515742787</v>
+        <v>5.764537515742789</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>25.86804837177229</v>
       </c>
       <c r="P91" t="n">
-        <v>18.66521162945014</v>
+        <v>18.66521162945015</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.04767408786214816</v>
+        <v>0.04767408786214886</v>
       </c>
       <c r="R91" t="n">
-        <v>0.5567684276694326</v>
+        <v>0.5567684276694815</v>
       </c>
       <c r="S91" t="n">
-        <v>0.3545760487422767</v>
+        <v>0.3545760487423101</v>
       </c>
       <c r="T91" t="n">
-        <v>0.3542934707389427</v>
+        <v>0.3542934707389407</v>
       </c>
       <c r="U91" t="n">
         <v>1.039493705507691</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3230395030248303</v>
+        <v>0.3230395030248292</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.003766300000002332</v>
+        <v>0.001814999999993461</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7965,10 +7965,10 @@
         <v>19.09962371635446</v>
       </c>
       <c r="G92" t="n">
-        <v>23.45058122079043</v>
+        <v>23.45058122079041</v>
       </c>
       <c r="H92" t="n">
-        <v>5.689769779298286</v>
+        <v>5.689769779298285</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>23.07138362314286</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.04394772047774902</v>
+        <v>0.04394772047774852</v>
       </c>
       <c r="R92" t="n">
-        <v>0.6098166203810714</v>
+        <v>0.6098166203810695</v>
       </c>
       <c r="S92" t="n">
-        <v>0.2058342854431637</v>
+        <v>0.205834285443162</v>
       </c>
       <c r="T92" t="n">
-        <v>0.9354633059666191</v>
+        <v>0.9354633059666051</v>
       </c>
       <c r="U92" t="n">
         <v>1.071511576274267</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5564075277128031</v>
+        <v>0.556407527712802</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.001991900000000157</v>
+        <v>0.001621900000003507</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8044,13 +8044,13 @@
         <v>359.8374959638294</v>
       </c>
       <c r="F93" t="n">
-        <v>19.39680447956314</v>
+        <v>19.39680447956315</v>
       </c>
       <c r="G93" t="n">
-        <v>35.49252550297905</v>
+        <v>35.49252550297904</v>
       </c>
       <c r="H93" t="n">
-        <v>6.955376476601564</v>
+        <v>6.955376476601571</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8074,25 +8074,25 @@
         <v>14.19023559262054</v>
       </c>
       <c r="P93" t="n">
-        <v>24.31798331529051</v>
+        <v>24.31798331529053</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.04769371516727266</v>
+        <v>0.04769371516727532</v>
       </c>
       <c r="R93" t="n">
-        <v>0.5902070366365538</v>
+        <v>0.5902070366365616</v>
       </c>
       <c r="S93" t="n">
-        <v>0.2871448603968088</v>
+        <v>0.2871448603968322</v>
       </c>
       <c r="T93" t="n">
-        <v>0.7570524129989318</v>
+        <v>0.7570524129989886</v>
       </c>
       <c r="U93" t="n">
-        <v>0.9405265597088979</v>
+        <v>0.9405265597088982</v>
       </c>
       <c r="V93" t="n">
-        <v>0.05949664836392886</v>
+        <v>0.05949664836393045</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.001982699999999227</v>
+        <v>0.001728399999990415</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8126,7 +8126,7 @@
         <v>0.2621695692169994</v>
       </c>
       <c r="F94" t="n">
-        <v>18.38986354871155</v>
+        <v>18.38986354871154</v>
       </c>
       <c r="G94" t="n">
         <v>161.8591231472286</v>
@@ -8153,28 +8153,28 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.33852354253933</v>
+        <v>62.33852354253935</v>
       </c>
       <c r="P94" t="n">
-        <v>6.188569843094685</v>
+        <v>6.188569843094678</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.04133606319176566</v>
+        <v>0.04133606319176395</v>
       </c>
       <c r="R94" t="n">
-        <v>0.6152550520794188</v>
+        <v>0.6152550520794164</v>
       </c>
       <c r="S94" t="n">
-        <v>0.3149605070314031</v>
+        <v>0.3149605070313959</v>
       </c>
       <c r="T94" t="n">
-        <v>0.3688566968978014</v>
+        <v>0.3688566968978034</v>
       </c>
       <c r="U94" t="n">
-        <v>0.8892455729242525</v>
+        <v>0.8892455729242529</v>
       </c>
       <c r="V94" t="n">
-        <v>0.5614320028262945</v>
+        <v>0.5614320028262986</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.004762200000001826</v>
+        <v>0.003927500000003192</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8214,7 +8214,7 @@
         <v>108.9782420285089</v>
       </c>
       <c r="H95" t="n">
-        <v>10.46935170356819</v>
+        <v>10.46935170356818</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -8241,22 +8241,22 @@
         <v>18.17099441415759</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.04859473534360739</v>
+        <v>0.04859473534360206</v>
       </c>
       <c r="R95" t="n">
-        <v>0.699598743165914</v>
+        <v>0.6995987431656897</v>
       </c>
       <c r="S95" t="n">
-        <v>0.5793215855332112</v>
+        <v>0.5793215855330334</v>
       </c>
       <c r="T95" t="n">
-        <v>0.1764848889200225</v>
+        <v>0.1764848889200085</v>
       </c>
       <c r="U95" t="n">
-        <v>0.9001529130903656</v>
+        <v>0.9001529130903653</v>
       </c>
       <c r="V95" t="n">
-        <v>0.1719320517429793</v>
+        <v>0.1719320517429798</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002429699999993318</v>
+        <v>0.002034699999995837</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8290,13 +8290,13 @@
         <v>0.03786530916267869</v>
       </c>
       <c r="F96" t="n">
-        <v>19.47962363410355</v>
+        <v>19.47962363410354</v>
       </c>
       <c r="G96" t="n">
         <v>129.3059541788793</v>
       </c>
       <c r="H96" t="n">
-        <v>9.913573209834427</v>
+        <v>9.913573209834423</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8317,28 +8317,28 @@
         <v>14.32873211053184</v>
       </c>
       <c r="O96" t="n">
-        <v>48.08024521559168</v>
+        <v>48.08024521559165</v>
       </c>
       <c r="P96" t="n">
         <v>13.96133910779383</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.04656260236187184</v>
+        <v>0.04656260236187555</v>
       </c>
       <c r="R96" t="n">
-        <v>0.6432546652087699</v>
+        <v>0.643254665208853</v>
       </c>
       <c r="S96" t="n">
-        <v>0.4628388182945046</v>
+        <v>0.4628388182945685</v>
       </c>
       <c r="T96" t="n">
-        <v>0.2126948737298291</v>
+        <v>0.2126948737298449</v>
       </c>
       <c r="U96" t="n">
-        <v>0.996063224777377</v>
+        <v>0.9960632247773769</v>
       </c>
       <c r="V96" t="n">
-        <v>0.1905937444149904</v>
+        <v>0.1905937444149988</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.00343740000000281</v>
+        <v>0.002904900000004318</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8375,10 +8375,10 @@
         <v>20.0383424281329</v>
       </c>
       <c r="G97" t="n">
-        <v>40.02510963916477</v>
+        <v>40.0251096391648</v>
       </c>
       <c r="H97" t="n">
-        <v>5.552872162504888</v>
+        <v>5.552872162504883</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8402,25 +8402,25 @@
         <v>13.57202398211887</v>
       </c>
       <c r="P97" t="n">
-        <v>23.17164223519502</v>
+        <v>23.17164223519501</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.04809187478308623</v>
+        <v>0.04809187478308571</v>
       </c>
       <c r="R97" t="n">
-        <v>0.5922801861905435</v>
+        <v>0.5922801861905395</v>
       </c>
       <c r="S97" t="n">
-        <v>0.2696095998078608</v>
+        <v>0.2696095998078554</v>
       </c>
       <c r="T97" t="n">
-        <v>0.7667493471304722</v>
+        <v>0.7667493471304593</v>
       </c>
       <c r="U97" t="n">
-        <v>0.9439157134811815</v>
+        <v>0.9439157134811816</v>
       </c>
       <c r="V97" t="n">
-        <v>0.1817580024538148</v>
+        <v>0.1817580024538114</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.001973300000003064</v>
+        <v>0.001634899999999107</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8454,10 +8454,10 @@
         <v>0.2354069056348935</v>
       </c>
       <c r="F98" t="n">
-        <v>19.68835685207019</v>
+        <v>19.68835685207018</v>
       </c>
       <c r="G98" t="n">
-        <v>39.72756435001284</v>
+        <v>39.72756435001283</v>
       </c>
       <c r="H98" t="n">
         <v>12.60056118752713</v>
@@ -8484,25 +8484,25 @@
         <v>20.82275746706294</v>
       </c>
       <c r="P98" t="n">
-        <v>30.70663723549961</v>
+        <v>30.7066372354996</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.05263446160473985</v>
+        <v>0.05263446160474108</v>
       </c>
       <c r="R98" t="n">
-        <v>0.7414815711523159</v>
+        <v>0.7414815711523313</v>
       </c>
       <c r="S98" t="n">
-        <v>0.5152162714103923</v>
+        <v>0.5152162714104185</v>
       </c>
       <c r="T98" t="n">
-        <v>0.7575369850808484</v>
+        <v>0.7575369850808881</v>
       </c>
       <c r="U98" t="n">
-        <v>0.9674150055253429</v>
+        <v>0.9674150055253421</v>
       </c>
       <c r="V98" t="n">
-        <v>0.3687142912617308</v>
+        <v>0.3687142912617309</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002003399999999544</v>
+        <v>0.001646800000003168</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>0.1939975557509694</v>
       </c>
       <c r="F99" t="n">
-        <v>19.10057161575778</v>
+        <v>19.10057161575777</v>
       </c>
       <c r="G99" t="n">
         <v>151.4983058978548</v>
       </c>
       <c r="H99" t="n">
-        <v>13.77735503514864</v>
+        <v>13.77735503514863</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8566,25 +8566,25 @@
         <v>77.90652189241504</v>
       </c>
       <c r="P99" t="n">
-        <v>9.331430547997039</v>
+        <v>9.33143054799703</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.04635211005954359</v>
+        <v>0.04635211005955337</v>
       </c>
       <c r="R99" t="n">
-        <v>0.9999698078624232</v>
+        <v>0.999969807862943</v>
       </c>
       <c r="S99" t="n">
-        <v>0.5971548879609548</v>
+        <v>0.5971548879612454</v>
       </c>
       <c r="T99" t="n">
-        <v>0.7178084866627732</v>
+        <v>0.7178084866631509</v>
       </c>
       <c r="U99" t="n">
         <v>0.9829634316123015</v>
       </c>
       <c r="V99" t="n">
-        <v>0.3200990061243282</v>
+        <v>0.3200990061243315</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.004996599999998352</v>
+        <v>0.004281200000008312</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8618,13 +8618,13 @@
         <v>0.3160284694936857</v>
       </c>
       <c r="F100" t="n">
-        <v>18.53061010997252</v>
+        <v>18.53061010997251</v>
       </c>
       <c r="G100" t="n">
         <v>134.9255025051143</v>
       </c>
       <c r="H100" t="n">
-        <v>8.796653070798561</v>
+        <v>8.796653070798559</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -8648,25 +8648,25 @@
         <v>45.95595053179254</v>
       </c>
       <c r="P100" t="n">
-        <v>12.16820094422254</v>
+        <v>12.16820094422253</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.04206125820935378</v>
+        <v>0.04206125820935329</v>
       </c>
       <c r="R100" t="n">
-        <v>0.5350985711799647</v>
+        <v>0.535098571179948</v>
       </c>
       <c r="S100" t="n">
-        <v>0.3707852623547019</v>
+        <v>0.3707852623546898</v>
       </c>
       <c r="T100" t="n">
-        <v>0.1821660796515166</v>
+        <v>0.1821660796515148</v>
       </c>
       <c r="U100" t="n">
         <v>1.086601234716174</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5871796014567596</v>
+        <v>0.5871796014567607</v>
       </c>
       <c r="W100" t="inlineStr">
         <is>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.00305089999999808</v>
+        <v>0.002463899999980868</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8706,7 +8706,7 @@
         <v>120.3004564449099</v>
       </c>
       <c r="H101" t="n">
-        <v>9.205332617510845</v>
+        <v>9.205332617510843</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -8733,22 +8733,22 @@
         <v>16.2983284968453</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.05036201741366675</v>
+        <v>0.05036201741366506</v>
       </c>
       <c r="R101" t="n">
-        <v>0.6735098264420148</v>
+        <v>0.6735098264420007</v>
       </c>
       <c r="S101" t="n">
-        <v>0.4780373193726791</v>
+        <v>0.4780373193726593</v>
       </c>
       <c r="T101" t="n">
-        <v>0.1917442298037404</v>
+        <v>0.1917442298037466</v>
       </c>
       <c r="U101" t="n">
-        <v>0.9719719580023698</v>
+        <v>0.9719719580023695</v>
       </c>
       <c r="V101" t="n">
-        <v>0.1962356063533619</v>
+        <v>0.1962356063533614</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.002415800000001411</v>
+        <v>0.0025489999999877</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
